--- a/PCA/Tables/CorrelationsMatrixTestForHighCorrelations.xlsx
+++ b/PCA/Tables/CorrelationsMatrixTestForHighCorrelations.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aaudk-my.sharepoint.com/personal/jgivsk20_student_aau_dk/Documents/7. semester/SemProj/Project7-Data-Analysis/PCA/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aaudk-my.sharepoint.com/personal/jgivsk20_student_aau_dk/Documents/7. semester/SemProj/Project7-Data-Analysis/PCA/Tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="8_{E3AF009F-D12F-6946-B3D1-3A7602934602}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{786C79B2-8011-134D-B935-94811CB98025}"/>
+  <xr:revisionPtr revIDLastSave="36" documentId="8_{E3AF009F-D12F-6946-B3D1-3A7602934602}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{32926DCF-0D9F-C447-A323-EE6835C954AD}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{0F58B46D-B78B-A54A-BA4C-D77D4B7535F9}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" activeTab="1" xr2:uid="{0F58B46D-B78B-A54A-BA4C-D77D4B7535F9}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Factor analysis" sheetId="1" r:id="rId1"/>
+    <sheet name="Correlation" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="41">
   <si>
     <t>Bitter</t>
   </si>
@@ -165,7 +166,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -173,13 +174,46 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -194,8 +228,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -548,15 +585,15 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AO41"/>
+  <dimension ref="A1:AP41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView zoomScale="41" workbookViewId="0">
+      <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:42" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -678,7 +715,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -802,8 +839,11 @@
       <c r="AO2">
         <v>-0.57235122297134999</v>
       </c>
+      <c r="AP2" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -927,8 +967,11 @@
       <c r="AO3">
         <v>0.85104364782152098</v>
       </c>
+      <c r="AP3" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1052,8 +1095,11 @@
       <c r="AO4">
         <v>0.95925222261426102</v>
       </c>
+      <c r="AP4" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1177,8 +1223,11 @@
       <c r="AO5">
         <v>0.86870076388297801</v>
       </c>
+      <c r="AP5" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1302,8 +1351,11 @@
       <c r="AO6">
         <v>0.85200069390862798</v>
       </c>
+      <c r="AP6" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1427,8 +1479,11 @@
       <c r="AO7">
         <v>0.96104778248144396</v>
       </c>
+      <c r="AP7" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="8" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1552,8 +1607,11 @@
       <c r="AO8">
         <v>-0.52266874074415703</v>
       </c>
+      <c r="AP8" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1677,8 +1735,11 @@
       <c r="AO9">
         <v>-0.69294304558208797</v>
       </c>
+      <c r="AP9" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="10" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1802,8 +1863,11 @@
       <c r="AO10">
         <v>-0.74205240476605105</v>
       </c>
+      <c r="AP10" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="11" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1927,8 +1991,11 @@
       <c r="AO11">
         <v>-0.76278416397059401</v>
       </c>
+      <c r="AP11" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="12" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -2052,8 +2119,11 @@
       <c r="AO12">
         <v>-0.74086921837882702</v>
       </c>
+      <c r="AP12" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="13" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -2177,8 +2247,11 @@
       <c r="AO13">
         <v>0.46493688086192803</v>
       </c>
+      <c r="AP13" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="14" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -2302,8 +2375,11 @@
       <c r="AO14">
         <v>-0.73235386399910996</v>
       </c>
+      <c r="AP14" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="15" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -2427,8 +2503,11 @@
       <c r="AO15">
         <v>-7.06400257248046E-2</v>
       </c>
+      <c r="AP15" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="16" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -2552,8 +2631,11 @@
       <c r="AO16">
         <v>-0.64572950441210697</v>
       </c>
+      <c r="AP16" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="17" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -2677,8 +2759,11 @@
       <c r="AO17">
         <v>-0.70831289088263505</v>
       </c>
+      <c r="AP17" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="18" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -2802,8 +2887,11 @@
       <c r="AO18">
         <v>-0.63124928246851097</v>
       </c>
+      <c r="AP18" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="19" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -2927,8 +3015,11 @@
       <c r="AO19">
         <v>-0.20074404704236201</v>
       </c>
+      <c r="AP19" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="20" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -3052,8 +3143,11 @@
       <c r="AO20">
         <v>-0.39434059486203998</v>
       </c>
+      <c r="AP20" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="21" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -3177,8 +3271,11 @@
       <c r="AO21">
         <v>-0.49810164356240999</v>
       </c>
+      <c r="AP21" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="22" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -3302,8 +3399,11 @@
       <c r="AO22">
         <v>-0.80754889127235396</v>
       </c>
+      <c r="AP22" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="23" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -3427,8 +3527,11 @@
       <c r="AO23">
         <v>0.47166083526951302</v>
       </c>
+      <c r="AP23" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="24" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -3552,8 +3655,11 @@
       <c r="AO24">
         <v>-2.1527285084230801E-3</v>
       </c>
+      <c r="AP24" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="25" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -3677,8 +3783,11 @@
       <c r="AO25">
         <v>-4.9975221149103299E-2</v>
       </c>
+      <c r="AP25" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="26" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -3802,8 +3911,11 @@
       <c r="AO26">
         <v>-0.31042151949075197</v>
       </c>
+      <c r="AP26" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="27" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -3927,8 +4039,11 @@
       <c r="AO27">
         <v>-0.62748097283588999</v>
       </c>
+      <c r="AP27" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="28" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -4052,8 +4167,11 @@
       <c r="AO28">
         <v>-0.60229734674678703</v>
       </c>
+      <c r="AP28" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="29" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -4177,8 +4295,11 @@
       <c r="AO29">
         <v>0.94433669288680799</v>
       </c>
+      <c r="AP29" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="30" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -4302,8 +4423,11 @@
       <c r="AO30">
         <v>-0.64895328598069102</v>
       </c>
+      <c r="AP30" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="31" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -4427,8 +4551,11 @@
       <c r="AO31">
         <v>-0.63213572757398295</v>
       </c>
+      <c r="AP31" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="32" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -4552,8 +4679,11 @@
       <c r="AO32">
         <v>-0.76469682537910999</v>
       </c>
+      <c r="AP32" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="33" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -4677,8 +4807,11 @@
       <c r="AO33">
         <v>-0.83103596103863997</v>
       </c>
+      <c r="AP33" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="34" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -4802,8 +4935,11 @@
       <c r="AO34">
         <v>-0.476109014650753</v>
       </c>
+      <c r="AP34" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="35" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -4927,8 +5063,11 @@
       <c r="AO35">
         <v>0.64803504319195804</v>
       </c>
+      <c r="AP35" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="36" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -5052,8 +5191,11 @@
       <c r="AO36">
         <v>0.79766078823931497</v>
       </c>
+      <c r="AP36" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="37" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -5177,8 +5319,11 @@
       <c r="AO37">
         <v>0.864532151830809</v>
       </c>
+      <c r="AP37" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="38" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -5302,8 +5447,11 @@
       <c r="AO38">
         <v>-0.90815244774447001</v>
       </c>
+      <c r="AP38" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="39" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -5427,8 +5575,11 @@
       <c r="AO39">
         <v>-0.307626134946482</v>
       </c>
+      <c r="AP39" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="40" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -5552,8 +5703,11 @@
       <c r="AO40">
         <v>-0.42999434222375998</v>
       </c>
+      <c r="AP40" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="41" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>39</v>
       </c>
@@ -5676,6 +5830,9 @@
       </c>
       <c r="AO41">
         <v>1</v>
+      </c>
+      <c r="AP41" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -5691,7 +5848,5278 @@
       <formula>0.8</formula>
     </cfRule>
   </conditionalFormatting>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="8" scale="80" fitToWidth="2" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B8D39C2-ED7C-A441-BB85-81445250F8FF}">
+  <dimension ref="A1:AP41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="42" workbookViewId="0">
+      <selection activeCell="N55" sqref="N55"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP1" s="1"/>
+    </row>
+    <row r="2" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>-0.54216759999999997</v>
+      </c>
+      <c r="D2" s="1">
+        <v>-0.50539400000000001</v>
+      </c>
+      <c r="E2" s="1">
+        <v>-0.30284040000000001</v>
+      </c>
+      <c r="F2" s="1">
+        <v>-0.46222439999999998</v>
+      </c>
+      <c r="G2" s="1">
+        <v>-0.45343929999999999</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0.84198494999999995</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0.79544630999999999</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0.78631804000000005</v>
+      </c>
+      <c r="K2" s="1">
+        <v>0.76173946000000003</v>
+      </c>
+      <c r="L2" s="1">
+        <v>0.43104780999999998</v>
+      </c>
+      <c r="M2" s="2">
+        <v>-0.90823480000000001</v>
+      </c>
+      <c r="N2" s="2">
+        <v>0.88609468999999996</v>
+      </c>
+      <c r="O2" s="1">
+        <v>0.73637242999999997</v>
+      </c>
+      <c r="P2" s="1">
+        <v>0.66278298000000002</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>0.63144412999999999</v>
+      </c>
+      <c r="R2" s="1">
+        <v>0.65972881000000005</v>
+      </c>
+      <c r="S2" s="1">
+        <v>0.78935838999999997</v>
+      </c>
+      <c r="T2" s="1">
+        <v>0.71194084000000002</v>
+      </c>
+      <c r="U2" s="2">
+        <v>0.87517224999999998</v>
+      </c>
+      <c r="V2" s="1">
+        <v>0.67977834999999998</v>
+      </c>
+      <c r="W2" s="2">
+        <v>-0.87581969999999998</v>
+      </c>
+      <c r="X2" s="3">
+        <v>0.13930492999999999</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>0.73692924000000004</v>
+      </c>
+      <c r="Z2" s="3">
+        <v>-0.1091804</v>
+      </c>
+      <c r="AA2" s="1">
+        <v>0.66575044999999999</v>
+      </c>
+      <c r="AB2" s="1">
+        <v>0.66090875999999998</v>
+      </c>
+      <c r="AC2" s="1">
+        <v>-0.58129209999999998</v>
+      </c>
+      <c r="AD2" s="2">
+        <v>0.82026905999999999</v>
+      </c>
+      <c r="AE2" s="2">
+        <v>0.90165790999999995</v>
+      </c>
+      <c r="AF2" s="1">
+        <v>0.77668334000000006</v>
+      </c>
+      <c r="AG2" s="1">
+        <v>0.66945345999999994</v>
+      </c>
+      <c r="AH2" s="1">
+        <v>0.47187259999999998</v>
+      </c>
+      <c r="AI2" s="3">
+        <v>-0.1357421</v>
+      </c>
+      <c r="AJ2" s="1">
+        <v>-0.51205409999999996</v>
+      </c>
+      <c r="AK2" s="1">
+        <v>-0.6183592</v>
+      </c>
+      <c r="AL2" s="1">
+        <v>0.74778264999999999</v>
+      </c>
+      <c r="AM2" s="2">
+        <v>0.81297564</v>
+      </c>
+      <c r="AN2" s="1">
+        <v>0.35936335000000003</v>
+      </c>
+      <c r="AO2" s="1">
+        <v>-0.57235119999999995</v>
+      </c>
+      <c r="AP2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>-0.54216759999999997</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.74703558000000003</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.73473822</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0.91608818000000003</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0.87263798999999997</v>
+      </c>
+      <c r="H3" s="3">
+        <v>-0.22595489999999999</v>
+      </c>
+      <c r="I3" s="1">
+        <v>-0.41601470000000002</v>
+      </c>
+      <c r="J3" s="1">
+        <v>-0.45408090000000001</v>
+      </c>
+      <c r="K3" s="1">
+        <v>-0.44615250000000001</v>
+      </c>
+      <c r="L3" s="1">
+        <v>-0.75628039999999996</v>
+      </c>
+      <c r="M3" s="3">
+        <v>0.26224268000000001</v>
+      </c>
+      <c r="N3" s="1">
+        <v>-0.68258750000000001</v>
+      </c>
+      <c r="O3" s="3">
+        <v>8.4833240000000004E-2</v>
+      </c>
+      <c r="P3" s="3">
+        <v>-0.27948499999999998</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>-0.3927582</v>
+      </c>
+      <c r="R3" s="3">
+        <v>-0.2635055</v>
+      </c>
+      <c r="S3" s="3">
+        <v>-0.20492199999999999</v>
+      </c>
+      <c r="T3" s="1">
+        <v>-0.3797606</v>
+      </c>
+      <c r="U3" s="3">
+        <v>-0.2531254</v>
+      </c>
+      <c r="V3" s="1">
+        <v>-0.55042519999999995</v>
+      </c>
+      <c r="W3" s="3">
+        <v>0.23693094000000001</v>
+      </c>
+      <c r="X3" s="3">
+        <v>-9.8808800000000002E-2</v>
+      </c>
+      <c r="Y3" s="3">
+        <v>0.14536093999999999</v>
+      </c>
+      <c r="Z3" s="1">
+        <v>-0.56257279999999998</v>
+      </c>
+      <c r="AA3" s="3">
+        <v>-0.2774626</v>
+      </c>
+      <c r="AB3" s="1">
+        <v>-0.76671429999999996</v>
+      </c>
+      <c r="AC3" s="2">
+        <v>0.85194345000000005</v>
+      </c>
+      <c r="AD3" s="1">
+        <v>-0.34488740000000001</v>
+      </c>
+      <c r="AE3" s="1">
+        <v>-0.40335870000000001</v>
+      </c>
+      <c r="AF3" s="1">
+        <v>-0.474829</v>
+      </c>
+      <c r="AG3" s="1">
+        <v>-0.56985969999999997</v>
+      </c>
+      <c r="AH3" s="3">
+        <v>-5.3343000000000002E-2</v>
+      </c>
+      <c r="AI3" s="1">
+        <v>0.72191877000000004</v>
+      </c>
+      <c r="AJ3" s="2">
+        <v>0.85000107999999996</v>
+      </c>
+      <c r="AK3" s="2">
+        <v>0.88822579000000002</v>
+      </c>
+      <c r="AL3" s="2">
+        <v>-0.81282759999999998</v>
+      </c>
+      <c r="AM3" s="3">
+        <v>-6.1928299999999999E-2</v>
+      </c>
+      <c r="AN3" s="3">
+        <v>-0.2276551</v>
+      </c>
+      <c r="AO3" s="2">
+        <v>0.85104365000000004</v>
+      </c>
+      <c r="AP3" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>-0.50539400000000001</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.74703558000000003</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.91316257999999995</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0.81522912999999997</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0.95207421999999997</v>
+      </c>
+      <c r="H4" s="1">
+        <v>-0.53831010000000001</v>
+      </c>
+      <c r="I4" s="1">
+        <v>-0.75896989999999998</v>
+      </c>
+      <c r="J4" s="1">
+        <v>-0.78266219999999997</v>
+      </c>
+      <c r="K4" s="2">
+        <v>-0.80661079999999996</v>
+      </c>
+      <c r="L4" s="1">
+        <v>-0.72288529999999995</v>
+      </c>
+      <c r="M4" s="1">
+        <v>0.44887565000000001</v>
+      </c>
+      <c r="N4" s="1">
+        <v>-0.6833707</v>
+      </c>
+      <c r="O4" s="3">
+        <v>-1.15085E-2</v>
+      </c>
+      <c r="P4" s="1">
+        <v>-0.69966139999999999</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>-0.8158898</v>
+      </c>
+      <c r="R4" s="1">
+        <v>-0.6943452</v>
+      </c>
+      <c r="S4" s="3">
+        <v>-0.1474366</v>
+      </c>
+      <c r="T4" s="1">
+        <v>-0.39679639999999999</v>
+      </c>
+      <c r="U4" s="1">
+        <v>-0.53618969999999999</v>
+      </c>
+      <c r="V4" s="2">
+        <v>-0.88519199999999998</v>
+      </c>
+      <c r="W4" s="1">
+        <v>0.45121503000000002</v>
+      </c>
+      <c r="X4" s="3">
+        <v>-1.9390000000000001E-2</v>
+      </c>
+      <c r="Y4" s="3">
+        <v>-6.8847500000000006E-2</v>
+      </c>
+      <c r="Z4" s="3">
+        <v>-0.18232429999999999</v>
+      </c>
+      <c r="AA4" s="1">
+        <v>-0.70946880000000001</v>
+      </c>
+      <c r="AB4" s="1">
+        <v>-0.53218679999999996</v>
+      </c>
+      <c r="AC4" s="2">
+        <v>0.94267756000000003</v>
+      </c>
+      <c r="AD4" s="1">
+        <v>-0.62320310000000001</v>
+      </c>
+      <c r="AE4" s="1">
+        <v>-0.60576450000000004</v>
+      </c>
+      <c r="AF4" s="2">
+        <v>-0.80799120000000002</v>
+      </c>
+      <c r="AG4" s="2">
+        <v>-0.88418260000000004</v>
+      </c>
+      <c r="AH4" s="1">
+        <v>-0.58732019999999996</v>
+      </c>
+      <c r="AI4" s="1">
+        <v>0.59404572</v>
+      </c>
+      <c r="AJ4" s="1">
+        <v>0.76462965999999999</v>
+      </c>
+      <c r="AK4" s="2">
+        <v>0.82296141</v>
+      </c>
+      <c r="AL4" s="2">
+        <v>-0.88371949999999999</v>
+      </c>
+      <c r="AM4" s="1">
+        <v>-0.36248370000000002</v>
+      </c>
+      <c r="AN4" s="1">
+        <v>-0.52841090000000002</v>
+      </c>
+      <c r="AO4" s="2">
+        <v>0.95925221999999999</v>
+      </c>
+      <c r="AP4" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>-0.30284040000000001</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.73473822</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.91316257999999995</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0.89618883999999999</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0.94441531000000001</v>
+      </c>
+      <c r="H5" s="3">
+        <v>-0.28469149999999999</v>
+      </c>
+      <c r="I5" s="1">
+        <v>-0.58863010000000004</v>
+      </c>
+      <c r="J5" s="1">
+        <v>-0.63441289999999995</v>
+      </c>
+      <c r="K5" s="1">
+        <v>-0.65177859999999999</v>
+      </c>
+      <c r="L5" s="1">
+        <v>-0.75924709999999995</v>
+      </c>
+      <c r="M5" s="3">
+        <v>0.16578414999999999</v>
+      </c>
+      <c r="N5" s="1">
+        <v>-0.53428710000000001</v>
+      </c>
+      <c r="O5" s="3">
+        <v>0.27364062</v>
+      </c>
+      <c r="P5" s="1">
+        <v>-0.58551010000000003</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>-0.72012169999999998</v>
+      </c>
+      <c r="R5" s="1">
+        <v>-0.57673759999999996</v>
+      </c>
+      <c r="S5" s="3">
+        <v>0.16447165999999999</v>
+      </c>
+      <c r="T5" s="1">
+        <v>-0.39754640000000002</v>
+      </c>
+      <c r="U5" s="1">
+        <v>-0.3270344</v>
+      </c>
+      <c r="V5" s="1">
+        <v>-0.79530000000000001</v>
+      </c>
+      <c r="W5" s="3">
+        <v>0.15612253000000001</v>
+      </c>
+      <c r="X5" s="3">
+        <v>0.11689155</v>
+      </c>
+      <c r="Y5" s="3">
+        <v>0.16757005</v>
+      </c>
+      <c r="Z5" s="3">
+        <v>-0.26509690000000002</v>
+      </c>
+      <c r="AA5" s="1">
+        <v>-0.59086740000000004</v>
+      </c>
+      <c r="AB5" s="1">
+        <v>-0.54750080000000001</v>
+      </c>
+      <c r="AC5" s="2">
+        <v>0.92839532000000002</v>
+      </c>
+      <c r="AD5" s="1">
+        <v>-0.4421776</v>
+      </c>
+      <c r="AE5" s="1">
+        <v>-0.43279529999999999</v>
+      </c>
+      <c r="AF5" s="1">
+        <v>-0.65964769999999995</v>
+      </c>
+      <c r="AG5" s="1">
+        <v>-0.78760300000000005</v>
+      </c>
+      <c r="AH5" s="1">
+        <v>-0.50861809999999996</v>
+      </c>
+      <c r="AI5" s="1">
+        <v>0.60763436999999998</v>
+      </c>
+      <c r="AJ5" s="1">
+        <v>0.79794387</v>
+      </c>
+      <c r="AK5" s="2">
+        <v>0.84146767</v>
+      </c>
+      <c r="AL5" s="2">
+        <v>-0.8298044</v>
+      </c>
+      <c r="AM5" s="3">
+        <v>-0.14008770000000001</v>
+      </c>
+      <c r="AN5" s="1">
+        <v>-0.34595579999999998</v>
+      </c>
+      <c r="AO5" s="2">
+        <v>0.86870075999999996</v>
+      </c>
+      <c r="AP5" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1">
+        <v>-0.46222439999999998</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.91608818000000003</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.81522912999999997</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.89618883999999999</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0.91889032999999998</v>
+      </c>
+      <c r="H6" s="3">
+        <v>-0.21784149999999999</v>
+      </c>
+      <c r="I6" s="1">
+        <v>-0.48674709999999999</v>
+      </c>
+      <c r="J6" s="1">
+        <v>-0.52067200000000002</v>
+      </c>
+      <c r="K6" s="1">
+        <v>-0.5269741</v>
+      </c>
+      <c r="L6" s="2">
+        <v>-0.89054650000000002</v>
+      </c>
+      <c r="M6" s="3">
+        <v>0.22212017000000001</v>
+      </c>
+      <c r="N6" s="1">
+        <v>-0.70058140000000002</v>
+      </c>
+      <c r="O6" s="3">
+        <v>0.21787314999999999</v>
+      </c>
+      <c r="P6" s="1">
+        <v>-0.41164390000000001</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>-0.54661369999999998</v>
+      </c>
+      <c r="R6" s="1">
+        <v>-0.38995560000000001</v>
+      </c>
+      <c r="S6" s="3">
+        <v>-2.34422E-2</v>
+      </c>
+      <c r="T6" s="1">
+        <v>-0.51975789999999999</v>
+      </c>
+      <c r="U6" s="3">
+        <v>-0.28175820000000001</v>
+      </c>
+      <c r="V6" s="1">
+        <v>-0.66097240000000002</v>
+      </c>
+      <c r="W6" s="3">
+        <v>0.15479598</v>
+      </c>
+      <c r="X6" s="3">
+        <v>-0.1123861</v>
+      </c>
+      <c r="Y6" s="3">
+        <v>0.15068388999999999</v>
+      </c>
+      <c r="Z6" s="1">
+        <v>-0.51975510000000003</v>
+      </c>
+      <c r="AA6" s="1">
+        <v>-0.40944979999999997</v>
+      </c>
+      <c r="AB6" s="2">
+        <v>-0.82330729999999996</v>
+      </c>
+      <c r="AC6" s="2">
+        <v>0.94166667999999998</v>
+      </c>
+      <c r="AD6" s="1">
+        <v>-0.39195429999999998</v>
+      </c>
+      <c r="AE6" s="1">
+        <v>-0.42516690000000001</v>
+      </c>
+      <c r="AF6" s="1">
+        <v>-0.54885649999999997</v>
+      </c>
+      <c r="AG6" s="1">
+        <v>-0.64907599999999999</v>
+      </c>
+      <c r="AH6" s="3">
+        <v>-0.22419249999999999</v>
+      </c>
+      <c r="AI6" s="1">
+        <v>0.75581390000000004</v>
+      </c>
+      <c r="AJ6" s="2">
+        <v>0.94986106999999997</v>
+      </c>
+      <c r="AK6" s="2">
+        <v>0.95884530000000001</v>
+      </c>
+      <c r="AL6" s="2">
+        <v>-0.88745739999999995</v>
+      </c>
+      <c r="AM6" s="3">
+        <v>-9.0051699999999998E-2</v>
+      </c>
+      <c r="AN6" s="3">
+        <v>-0.18353639999999999</v>
+      </c>
+      <c r="AO6" s="2">
+        <v>0.85200069</v>
+      </c>
+      <c r="AP6" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1">
+        <v>-0.45343929999999999</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.87263798999999997</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0.95207421999999997</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0.94441531000000001</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0.91889032999999998</v>
+      </c>
+      <c r="G7" s="2">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1">
+        <v>-0.3652685</v>
+      </c>
+      <c r="I7" s="1">
+        <v>-0.60103609999999996</v>
+      </c>
+      <c r="J7" s="1">
+        <v>-0.65109329999999999</v>
+      </c>
+      <c r="K7" s="1">
+        <v>-0.66717190000000004</v>
+      </c>
+      <c r="L7" s="1">
+        <v>-0.79026569999999996</v>
+      </c>
+      <c r="M7" s="3">
+        <v>0.29046303000000001</v>
+      </c>
+      <c r="N7" s="1">
+        <v>-0.63288809999999995</v>
+      </c>
+      <c r="O7" s="3">
+        <v>0.14804634</v>
+      </c>
+      <c r="P7" s="1">
+        <v>-0.54000499999999996</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>-0.6624835</v>
+      </c>
+      <c r="R7" s="1">
+        <v>-0.53035120000000002</v>
+      </c>
+      <c r="S7" s="3">
+        <v>-5.9863800000000002E-2</v>
+      </c>
+      <c r="T7" s="1">
+        <v>-0.34366170000000001</v>
+      </c>
+      <c r="U7" s="1">
+        <v>-0.37954310000000002</v>
+      </c>
+      <c r="V7" s="1">
+        <v>-0.77884699999999996</v>
+      </c>
+      <c r="W7" s="3">
+        <v>0.28217706999999997</v>
+      </c>
+      <c r="X7" s="3">
+        <v>1.567439E-2</v>
+      </c>
+      <c r="Y7" s="3">
+        <v>0.11427045</v>
+      </c>
+      <c r="Z7" s="1">
+        <v>-0.38199699999999998</v>
+      </c>
+      <c r="AA7" s="1">
+        <v>-0.54705020000000004</v>
+      </c>
+      <c r="AB7" s="1">
+        <v>-0.61943490000000001</v>
+      </c>
+      <c r="AC7" s="2">
+        <v>0.96079711000000001</v>
+      </c>
+      <c r="AD7" s="1">
+        <v>-0.489562</v>
+      </c>
+      <c r="AE7" s="1">
+        <v>-0.49129299999999998</v>
+      </c>
+      <c r="AF7" s="1">
+        <v>-0.67471570000000003</v>
+      </c>
+      <c r="AG7" s="1">
+        <v>-0.78429780000000004</v>
+      </c>
+      <c r="AH7" s="1">
+        <v>-0.42027350000000002</v>
+      </c>
+      <c r="AI7" s="1">
+        <v>0.68694089999999997</v>
+      </c>
+      <c r="AJ7" s="2">
+        <v>0.83141556999999999</v>
+      </c>
+      <c r="AK7" s="2">
+        <v>0.87816543000000002</v>
+      </c>
+      <c r="AL7" s="2">
+        <v>-0.8759768</v>
+      </c>
+      <c r="AM7" s="3">
+        <v>-0.1672438</v>
+      </c>
+      <c r="AN7" s="1">
+        <v>-0.36944510000000003</v>
+      </c>
+      <c r="AO7" s="2">
+        <v>0.96104778000000002</v>
+      </c>
+      <c r="AP7" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0.84198494999999995</v>
+      </c>
+      <c r="C8" s="3">
+        <v>-0.22595489999999999</v>
+      </c>
+      <c r="D8" s="1">
+        <v>-0.53831010000000001</v>
+      </c>
+      <c r="E8" s="3">
+        <v>-0.28469149999999999</v>
+      </c>
+      <c r="F8" s="3">
+        <v>-0.21784149999999999</v>
+      </c>
+      <c r="G8" s="1">
+        <v>-0.3652685</v>
+      </c>
+      <c r="H8" s="2">
+        <v>1</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0.89980932000000002</v>
+      </c>
+      <c r="J8" s="2">
+        <v>0.90859791000000001</v>
+      </c>
+      <c r="K8" s="2">
+        <v>0.90553170000000005</v>
+      </c>
+      <c r="L8" s="3">
+        <v>0.19176492000000001</v>
+      </c>
+      <c r="M8" s="2">
+        <v>-0.946183</v>
+      </c>
+      <c r="N8" s="1">
+        <v>0.70713431000000004</v>
+      </c>
+      <c r="O8" s="2">
+        <v>0.81287640000000005</v>
+      </c>
+      <c r="P8" s="2">
+        <v>0.88254096999999998</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>0.79037201000000001</v>
+      </c>
+      <c r="R8" s="2">
+        <v>0.88488827000000003</v>
+      </c>
+      <c r="S8" s="1">
+        <v>0.70590668000000001</v>
+      </c>
+      <c r="T8" s="1">
+        <v>0.52476663999999995</v>
+      </c>
+      <c r="U8" s="2">
+        <v>0.97293521000000005</v>
+      </c>
+      <c r="V8" s="1">
+        <v>0.77217663999999997</v>
+      </c>
+      <c r="W8" s="2">
+        <v>-0.97452190000000005</v>
+      </c>
+      <c r="X8" s="3">
+        <v>-6.6528900000000002E-2</v>
+      </c>
+      <c r="Y8" s="2">
+        <v>0.83189970999999996</v>
+      </c>
+      <c r="Z8" s="1">
+        <v>-0.45015889999999997</v>
+      </c>
+      <c r="AA8" s="2">
+        <v>0.88833501000000004</v>
+      </c>
+      <c r="AB8" s="3">
+        <v>0.28144284000000003</v>
+      </c>
+      <c r="AC8" s="1">
+        <v>-0.4684971</v>
+      </c>
+      <c r="AD8" s="2">
+        <v>0.93550924999999996</v>
+      </c>
+      <c r="AE8" s="2">
+        <v>0.94963872999999999</v>
+      </c>
+      <c r="AF8" s="2">
+        <v>0.89492791000000005</v>
+      </c>
+      <c r="AG8" s="1">
+        <v>0.78267054999999996</v>
+      </c>
+      <c r="AH8" s="1">
+        <v>0.79880918999999995</v>
+      </c>
+      <c r="AI8" s="3">
+        <v>0.10302248999999999</v>
+      </c>
+      <c r="AJ8" s="3">
+        <v>-0.2410149</v>
+      </c>
+      <c r="AK8" s="1">
+        <v>-0.3798938</v>
+      </c>
+      <c r="AL8" s="1">
+        <v>0.63045728000000001</v>
+      </c>
+      <c r="AM8" s="2">
+        <v>0.9289423</v>
+      </c>
+      <c r="AN8" s="1">
+        <v>0.60118676000000004</v>
+      </c>
+      <c r="AO8" s="1">
+        <v>-0.52266869999999999</v>
+      </c>
+      <c r="AP8" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.79544630999999999</v>
+      </c>
+      <c r="C9" s="1">
+        <v>-0.41601470000000002</v>
+      </c>
+      <c r="D9" s="1">
+        <v>-0.75896989999999998</v>
+      </c>
+      <c r="E9" s="1">
+        <v>-0.58863010000000004</v>
+      </c>
+      <c r="F9" s="1">
+        <v>-0.48674709999999999</v>
+      </c>
+      <c r="G9" s="1">
+        <v>-0.60103609999999996</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0.89980932000000002</v>
+      </c>
+      <c r="I9" s="2">
+        <v>1</v>
+      </c>
+      <c r="J9" s="2">
+        <v>0.98194031999999998</v>
+      </c>
+      <c r="K9" s="2">
+        <v>0.97578513</v>
+      </c>
+      <c r="L9" s="1">
+        <v>0.42246285</v>
+      </c>
+      <c r="M9" s="2">
+        <v>-0.8259784</v>
+      </c>
+      <c r="N9" s="1">
+        <v>0.77899852999999997</v>
+      </c>
+      <c r="O9" s="1">
+        <v>0.56397065000000002</v>
+      </c>
+      <c r="P9" s="2">
+        <v>0.93469517000000002</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>0.96327014</v>
+      </c>
+      <c r="R9" s="2">
+        <v>0.94308188000000004</v>
+      </c>
+      <c r="S9" s="1">
+        <v>0.46374720000000003</v>
+      </c>
+      <c r="T9" s="1">
+        <v>0.68945917000000001</v>
+      </c>
+      <c r="U9" s="2">
+        <v>0.92442833999999996</v>
+      </c>
+      <c r="V9" s="2">
+        <v>0.95135468000000001</v>
+      </c>
+      <c r="W9" s="2">
+        <v>-0.84246540000000003</v>
+      </c>
+      <c r="X9" s="3">
+        <v>-5.9718E-2</v>
+      </c>
+      <c r="Y9" s="1">
+        <v>0.66048275000000001</v>
+      </c>
+      <c r="Z9" s="1">
+        <v>-0.3647668</v>
+      </c>
+      <c r="AA9" s="2">
+        <v>0.94813972999999996</v>
+      </c>
+      <c r="AB9" s="1">
+        <v>0.43708831999999997</v>
+      </c>
+      <c r="AC9" s="1">
+        <v>-0.71045159999999996</v>
+      </c>
+      <c r="AD9" s="2">
+        <v>0.88767763</v>
+      </c>
+      <c r="AE9" s="2">
+        <v>0.91800526000000005</v>
+      </c>
+      <c r="AF9" s="2">
+        <v>0.98340316000000005</v>
+      </c>
+      <c r="AG9" s="2">
+        <v>0.93222664</v>
+      </c>
+      <c r="AH9" s="2">
+        <v>0.83785299999999996</v>
+      </c>
+      <c r="AI9" s="3">
+        <v>-0.10967250000000001</v>
+      </c>
+      <c r="AJ9" s="1">
+        <v>-0.4965271</v>
+      </c>
+      <c r="AK9" s="1">
+        <v>-0.63171770000000005</v>
+      </c>
+      <c r="AL9" s="2">
+        <v>0.80059862999999998</v>
+      </c>
+      <c r="AM9" s="2">
+        <v>0.87145950999999999</v>
+      </c>
+      <c r="AN9" s="1">
+        <v>0.61431658</v>
+      </c>
+      <c r="AO9" s="1">
+        <v>-0.69294299999999998</v>
+      </c>
+      <c r="AP9" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0.78631804000000005</v>
+      </c>
+      <c r="C10" s="1">
+        <v>-0.45408090000000001</v>
+      </c>
+      <c r="D10" s="1">
+        <v>-0.78266219999999997</v>
+      </c>
+      <c r="E10" s="1">
+        <v>-0.63441289999999995</v>
+      </c>
+      <c r="F10" s="1">
+        <v>-0.52067200000000002</v>
+      </c>
+      <c r="G10" s="1">
+        <v>-0.65109329999999999</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0.90859791000000001</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0.98194031999999998</v>
+      </c>
+      <c r="J10" s="2">
+        <v>1</v>
+      </c>
+      <c r="K10" s="2">
+        <v>0.99518779999999996</v>
+      </c>
+      <c r="L10" s="1">
+        <v>0.41481606999999998</v>
+      </c>
+      <c r="M10" s="2">
+        <v>-0.80313199999999996</v>
+      </c>
+      <c r="N10" s="1">
+        <v>0.75671098999999997</v>
+      </c>
+      <c r="O10" s="1">
+        <v>0.54550878999999997</v>
+      </c>
+      <c r="P10" s="2">
+        <v>0.96308914999999995</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>0.95320203000000003</v>
+      </c>
+      <c r="R10" s="2">
+        <v>0.96659991000000001</v>
+      </c>
+      <c r="S10" s="1">
+        <v>0.44131344</v>
+      </c>
+      <c r="T10" s="1">
+        <v>0.62446429999999997</v>
+      </c>
+      <c r="U10" s="2">
+        <v>0.91549424999999995</v>
+      </c>
+      <c r="V10" s="2">
+        <v>0.95997838000000002</v>
+      </c>
+      <c r="W10" s="2">
+        <v>-0.8374587</v>
+      </c>
+      <c r="X10" s="3">
+        <v>-0.1753604</v>
+      </c>
+      <c r="Y10" s="1">
+        <v>0.61126133000000005</v>
+      </c>
+      <c r="Z10" s="1">
+        <v>-0.3371593</v>
+      </c>
+      <c r="AA10" s="2">
+        <v>0.97025021</v>
+      </c>
+      <c r="AB10" s="1">
+        <v>0.41459918000000001</v>
+      </c>
+      <c r="AC10" s="1">
+        <v>-0.73596700000000004</v>
+      </c>
+      <c r="AD10" s="2">
+        <v>0.91750180999999997</v>
+      </c>
+      <c r="AE10" s="2">
+        <v>0.93903727999999997</v>
+      </c>
+      <c r="AF10" s="2">
+        <v>0.99747987000000005</v>
+      </c>
+      <c r="AG10" s="2">
+        <v>0.96346111000000001</v>
+      </c>
+      <c r="AH10" s="2">
+        <v>0.87218300000000004</v>
+      </c>
+      <c r="AI10" s="3">
+        <v>-0.10609109999999999</v>
+      </c>
+      <c r="AJ10" s="1">
+        <v>-0.48915340000000002</v>
+      </c>
+      <c r="AK10" s="1">
+        <v>-0.64077729999999999</v>
+      </c>
+      <c r="AL10" s="2">
+        <v>0.82571181999999999</v>
+      </c>
+      <c r="AM10" s="2">
+        <v>0.82621405999999997</v>
+      </c>
+      <c r="AN10" s="1">
+        <v>0.63311903000000003</v>
+      </c>
+      <c r="AO10" s="1">
+        <v>-0.74205239999999995</v>
+      </c>
+      <c r="AP10" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0.76173946000000003</v>
+      </c>
+      <c r="C11" s="1">
+        <v>-0.44615250000000001</v>
+      </c>
+      <c r="D11" s="2">
+        <v>-0.80661079999999996</v>
+      </c>
+      <c r="E11" s="1">
+        <v>-0.65177859999999999</v>
+      </c>
+      <c r="F11" s="1">
+        <v>-0.5269741</v>
+      </c>
+      <c r="G11" s="1">
+        <v>-0.66717190000000004</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0.90553170000000005</v>
+      </c>
+      <c r="I11" s="2">
+        <v>0.97578513</v>
+      </c>
+      <c r="J11" s="2">
+        <v>0.99518779999999996</v>
+      </c>
+      <c r="K11" s="2">
+        <v>1</v>
+      </c>
+      <c r="L11" s="1">
+        <v>0.44872498999999999</v>
+      </c>
+      <c r="M11" s="2">
+        <v>-0.80219810000000003</v>
+      </c>
+      <c r="N11" s="1">
+        <v>0.76245470000000004</v>
+      </c>
+      <c r="O11" s="1">
+        <v>0.52277598999999997</v>
+      </c>
+      <c r="P11" s="2">
+        <v>0.96985191999999998</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>0.95659253</v>
+      </c>
+      <c r="R11" s="2">
+        <v>0.96983704000000004</v>
+      </c>
+      <c r="S11" s="1">
+        <v>0.42856018000000001</v>
+      </c>
+      <c r="T11" s="1">
+        <v>0.60634354999999995</v>
+      </c>
+      <c r="U11" s="2">
+        <v>0.90297519999999998</v>
+      </c>
+      <c r="V11" s="2">
+        <v>0.95814743999999996</v>
+      </c>
+      <c r="W11" s="2">
+        <v>-0.82731060000000001</v>
+      </c>
+      <c r="X11" s="3">
+        <v>-0.13097549999999999</v>
+      </c>
+      <c r="Y11" s="1">
+        <v>0.59385063000000005</v>
+      </c>
+      <c r="Z11" s="3">
+        <v>-0.29836760000000001</v>
+      </c>
+      <c r="AA11" s="2">
+        <v>0.97150194000000001</v>
+      </c>
+      <c r="AB11" s="1">
+        <v>0.41634091000000001</v>
+      </c>
+      <c r="AC11" s="1">
+        <v>-0.75001830000000003</v>
+      </c>
+      <c r="AD11" s="2">
+        <v>0.92791944000000004</v>
+      </c>
+      <c r="AE11" s="2">
+        <v>0.93046432999999995</v>
+      </c>
+      <c r="AF11" s="2">
+        <v>0.99623903000000003</v>
+      </c>
+      <c r="AG11" s="2">
+        <v>0.96032138</v>
+      </c>
+      <c r="AH11" s="2">
+        <v>0.87798752000000002</v>
+      </c>
+      <c r="AI11" s="3">
+        <v>-0.14991260000000001</v>
+      </c>
+      <c r="AJ11" s="1">
+        <v>-0.50798149999999997</v>
+      </c>
+      <c r="AK11" s="1">
+        <v>-0.64283959999999996</v>
+      </c>
+      <c r="AL11" s="2">
+        <v>0.83287487999999998</v>
+      </c>
+      <c r="AM11" s="2">
+        <v>0.80782304999999999</v>
+      </c>
+      <c r="AN11" s="1">
+        <v>0.62017864</v>
+      </c>
+      <c r="AO11" s="1">
+        <v>-0.76278420000000002</v>
+      </c>
+      <c r="AP11" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0.43104780999999998</v>
+      </c>
+      <c r="C12" s="1">
+        <v>-0.75628039999999996</v>
+      </c>
+      <c r="D12" s="1">
+        <v>-0.72288529999999995</v>
+      </c>
+      <c r="E12" s="1">
+        <v>-0.75924709999999995</v>
+      </c>
+      <c r="F12" s="2">
+        <v>-0.89054650000000002</v>
+      </c>
+      <c r="G12" s="1">
+        <v>-0.79026569999999996</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0.19176492000000001</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0.42246285</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0.41481606999999998</v>
+      </c>
+      <c r="K12" s="1">
+        <v>0.44872498999999999</v>
+      </c>
+      <c r="L12" s="2">
+        <v>1</v>
+      </c>
+      <c r="M12" s="3">
+        <v>-0.28704020000000002</v>
+      </c>
+      <c r="N12" s="1">
+        <v>0.73053674999999996</v>
+      </c>
+      <c r="O12" s="3">
+        <v>-0.193776</v>
+      </c>
+      <c r="P12" s="1">
+        <v>0.3312621</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>0.46964984999999998</v>
+      </c>
+      <c r="R12" s="1">
+        <v>0.30011611999999999</v>
+      </c>
+      <c r="S12" s="3">
+        <v>7.0438230000000004E-2</v>
+      </c>
+      <c r="T12" s="1">
+        <v>0.56748094000000004</v>
+      </c>
+      <c r="U12" s="3">
+        <v>0.25053431999999998</v>
+      </c>
+      <c r="V12" s="1">
+        <v>0.53788575000000005</v>
+      </c>
+      <c r="W12" s="3">
+        <v>-0.1300857</v>
+      </c>
+      <c r="X12" s="1">
+        <v>0.48327625000000002</v>
+      </c>
+      <c r="Y12" s="3">
+        <v>-3.9161500000000002E-2</v>
+      </c>
+      <c r="Z12" s="1">
+        <v>0.63056330999999999</v>
+      </c>
+      <c r="AA12" s="1">
+        <v>0.31621169999999998</v>
+      </c>
+      <c r="AB12" s="2">
+        <v>0.88186611000000004</v>
+      </c>
+      <c r="AC12" s="2">
+        <v>-0.86501680000000003</v>
+      </c>
+      <c r="AD12" s="1">
+        <v>0.373423</v>
+      </c>
+      <c r="AE12" s="1">
+        <v>0.36606971999999999</v>
+      </c>
+      <c r="AF12" s="1">
+        <v>0.45637319999999998</v>
+      </c>
+      <c r="AG12" s="1">
+        <v>0.47732071999999998</v>
+      </c>
+      <c r="AH12" s="3">
+        <v>0.15366458</v>
+      </c>
+      <c r="AI12" s="2">
+        <v>-0.86740390000000001</v>
+      </c>
+      <c r="AJ12" s="2">
+        <v>-0.96980639999999996</v>
+      </c>
+      <c r="AK12" s="2">
+        <v>-0.89287760000000005</v>
+      </c>
+      <c r="AL12" s="2">
+        <v>0.81180732</v>
+      </c>
+      <c r="AM12" s="3">
+        <v>0.10396757</v>
+      </c>
+      <c r="AN12" s="3">
+        <v>-7.0656099999999999E-2</v>
+      </c>
+      <c r="AO12" s="1">
+        <v>-0.74086920000000001</v>
+      </c>
+      <c r="AP12" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2">
+        <v>-0.90823480000000001</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0.26224268000000001</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0.44887565000000001</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0.16578414999999999</v>
+      </c>
+      <c r="F13" s="3">
+        <v>0.22212017000000001</v>
+      </c>
+      <c r="G13" s="3">
+        <v>0.29046303000000001</v>
+      </c>
+      <c r="H13" s="2">
+        <v>-0.946183</v>
+      </c>
+      <c r="I13" s="2">
+        <v>-0.8259784</v>
+      </c>
+      <c r="J13" s="2">
+        <v>-0.80313199999999996</v>
+      </c>
+      <c r="K13" s="2">
+        <v>-0.80219810000000003</v>
+      </c>
+      <c r="L13" s="3">
+        <v>-0.28704020000000002</v>
+      </c>
+      <c r="M13" s="2">
+        <v>1</v>
+      </c>
+      <c r="N13" s="2">
+        <v>-0.80623009999999995</v>
+      </c>
+      <c r="O13" s="2">
+        <v>-0.8564775</v>
+      </c>
+      <c r="P13" s="1">
+        <v>-0.75126669999999995</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>-0.67091559999999995</v>
+      </c>
+      <c r="R13" s="1">
+        <v>-0.74327220000000005</v>
+      </c>
+      <c r="S13" s="2">
+        <v>-0.81542119999999996</v>
+      </c>
+      <c r="T13" s="1">
+        <v>-0.6146855</v>
+      </c>
+      <c r="U13" s="2">
+        <v>-0.92484100000000002</v>
+      </c>
+      <c r="V13" s="1">
+        <v>-0.65119689999999997</v>
+      </c>
+      <c r="W13" s="2">
+        <v>0.96718992999999998</v>
+      </c>
+      <c r="X13" s="3">
+        <v>-0.2062599</v>
+      </c>
+      <c r="Y13" s="2">
+        <v>-0.88510330000000004</v>
+      </c>
+      <c r="Z13" s="3">
+        <v>0.28743204</v>
+      </c>
+      <c r="AA13" s="1">
+        <v>-0.74996770000000001</v>
+      </c>
+      <c r="AB13" s="1">
+        <v>-0.43771929999999998</v>
+      </c>
+      <c r="AC13" s="1">
+        <v>0.44084739000000001</v>
+      </c>
+      <c r="AD13" s="2">
+        <v>-0.88279879999999999</v>
+      </c>
+      <c r="AE13" s="2">
+        <v>-0.91098979999999996</v>
+      </c>
+      <c r="AF13" s="1">
+        <v>-0.79914019999999997</v>
+      </c>
+      <c r="AG13" s="1">
+        <v>-0.64248640000000001</v>
+      </c>
+      <c r="AH13" s="1">
+        <v>-0.60055879999999995</v>
+      </c>
+      <c r="AI13" s="3">
+        <v>2.5891919999999999E-2</v>
+      </c>
+      <c r="AJ13" s="1">
+        <v>0.32516026999999997</v>
+      </c>
+      <c r="AK13" s="1">
+        <v>0.41950415000000002</v>
+      </c>
+      <c r="AL13" s="1">
+        <v>-0.62609649999999994</v>
+      </c>
+      <c r="AM13" s="2">
+        <v>-0.90894600000000003</v>
+      </c>
+      <c r="AN13" s="1">
+        <v>-0.44690980000000002</v>
+      </c>
+      <c r="AO13" s="1">
+        <v>0.46493688</v>
+      </c>
+      <c r="AP13" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2">
+        <v>0.88609468999999996</v>
+      </c>
+      <c r="C14" s="1">
+        <v>-0.68258750000000001</v>
+      </c>
+      <c r="D14" s="1">
+        <v>-0.6833707</v>
+      </c>
+      <c r="E14" s="1">
+        <v>-0.53428710000000001</v>
+      </c>
+      <c r="F14" s="1">
+        <v>-0.70058140000000002</v>
+      </c>
+      <c r="G14" s="1">
+        <v>-0.63288809999999995</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0.70713431000000004</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0.77899852999999997</v>
+      </c>
+      <c r="J14" s="1">
+        <v>0.75671098999999997</v>
+      </c>
+      <c r="K14" s="1">
+        <v>0.76245470000000004</v>
+      </c>
+      <c r="L14" s="1">
+        <v>0.73053674999999996</v>
+      </c>
+      <c r="M14" s="2">
+        <v>-0.80623009999999995</v>
+      </c>
+      <c r="N14" s="2">
+        <v>1</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0.47846717</v>
+      </c>
+      <c r="P14" s="1">
+        <v>0.66578059999999994</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>0.69071214000000003</v>
+      </c>
+      <c r="R14" s="1">
+        <v>0.64383069999999998</v>
+      </c>
+      <c r="S14" s="1">
+        <v>0.59458036999999997</v>
+      </c>
+      <c r="T14" s="2">
+        <v>0.80368987000000003</v>
+      </c>
+      <c r="U14" s="1">
+        <v>0.74437065999999996</v>
+      </c>
+      <c r="V14" s="1">
+        <v>0.72671870000000005</v>
+      </c>
+      <c r="W14" s="1">
+        <v>-0.71649030000000002</v>
+      </c>
+      <c r="X14" s="1">
+        <v>0.35330140999999998</v>
+      </c>
+      <c r="Y14" s="1">
+        <v>0.52765154000000003</v>
+      </c>
+      <c r="Z14" s="3">
+        <v>0.1678914</v>
+      </c>
+      <c r="AA14" s="1">
+        <v>0.64442416000000002</v>
+      </c>
+      <c r="AB14" s="2">
+        <v>0.85063555000000002</v>
+      </c>
+      <c r="AC14" s="1">
+        <v>-0.78138799999999997</v>
+      </c>
+      <c r="AD14" s="1">
+        <v>0.79367432000000004</v>
+      </c>
+      <c r="AE14" s="2">
+        <v>0.82560518999999999</v>
+      </c>
+      <c r="AF14" s="1">
+        <v>0.77345185000000005</v>
+      </c>
+      <c r="AG14" s="1">
+        <v>0.70164201999999998</v>
+      </c>
+      <c r="AH14" s="1">
+        <v>0.40263439000000001</v>
+      </c>
+      <c r="AI14" s="1">
+        <v>-0.47802149999999999</v>
+      </c>
+      <c r="AJ14" s="1">
+        <v>-0.79819490000000004</v>
+      </c>
+      <c r="AK14" s="2">
+        <v>-0.82764700000000002</v>
+      </c>
+      <c r="AL14" s="2">
+        <v>0.90004329999999999</v>
+      </c>
+      <c r="AM14" s="1">
+        <v>0.65815109999999999</v>
+      </c>
+      <c r="AN14" s="3">
+        <v>0.29945807000000002</v>
+      </c>
+      <c r="AO14" s="1">
+        <v>-0.7323539</v>
+      </c>
+      <c r="AP14" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0.73637242999999997</v>
+      </c>
+      <c r="C15" s="3">
+        <v>8.4833240000000004E-2</v>
+      </c>
+      <c r="D15" s="3">
+        <v>-1.15085E-2</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0.27364062</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0.21787314999999999</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0.14804634</v>
+      </c>
+      <c r="H15" s="2">
+        <v>0.81287640000000005</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0.56397065000000002</v>
+      </c>
+      <c r="J15" s="1">
+        <v>0.54550878999999997</v>
+      </c>
+      <c r="K15" s="1">
+        <v>0.52277598999999997</v>
+      </c>
+      <c r="L15" s="3">
+        <v>-0.193776</v>
+      </c>
+      <c r="M15" s="2">
+        <v>-0.8564775</v>
+      </c>
+      <c r="N15" s="1">
+        <v>0.47846717</v>
+      </c>
+      <c r="O15" s="2">
+        <v>1</v>
+      </c>
+      <c r="P15" s="1">
+        <v>0.53352358</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>0.35636783999999999</v>
+      </c>
+      <c r="R15" s="1">
+        <v>0.53777998000000005</v>
+      </c>
+      <c r="S15" s="1">
+        <v>0.78119941999999998</v>
+      </c>
+      <c r="T15" s="1">
+        <v>0.41067924</v>
+      </c>
+      <c r="U15" s="1">
+        <v>0.76756453999999996</v>
+      </c>
+      <c r="V15" s="1">
+        <v>0.30801320999999998</v>
+      </c>
+      <c r="W15" s="2">
+        <v>-0.89310800000000001</v>
+      </c>
+      <c r="X15" s="3">
+        <v>-1.519E-2</v>
+      </c>
+      <c r="Y15" s="2">
+        <v>0.92034634000000004</v>
+      </c>
+      <c r="Z15" s="1">
+        <v>-0.53740220000000005</v>
+      </c>
+      <c r="AA15" s="1">
+        <v>0.51173038999999998</v>
+      </c>
+      <c r="AB15" s="3">
+        <v>7.127203E-2</v>
+      </c>
+      <c r="AC15" s="3">
+        <v>1.86797E-2</v>
+      </c>
+      <c r="AD15" s="1">
+        <v>0.70380682000000006</v>
+      </c>
+      <c r="AE15" s="1">
+        <v>0.73824853999999995</v>
+      </c>
+      <c r="AF15" s="1">
+        <v>0.51842635000000004</v>
+      </c>
+      <c r="AG15" s="1">
+        <v>0.32957890000000001</v>
+      </c>
+      <c r="AH15" s="1">
+        <v>0.43204966</v>
+      </c>
+      <c r="AI15" s="1">
+        <v>0.39292922000000002</v>
+      </c>
+      <c r="AJ15" s="3">
+        <v>0.13189011</v>
+      </c>
+      <c r="AK15" s="3">
+        <v>2.3633399999999998E-3</v>
+      </c>
+      <c r="AL15" s="3">
+        <v>0.21345633999999999</v>
+      </c>
+      <c r="AM15" s="2">
+        <v>0.84163167000000005</v>
+      </c>
+      <c r="AN15" s="1">
+        <v>0.32282712000000002</v>
+      </c>
+      <c r="AO15" s="3">
+        <v>-7.0639999999999994E-2</v>
+      </c>
+      <c r="AP15" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0.66278298000000002</v>
+      </c>
+      <c r="C16" s="3">
+        <v>-0.27948499999999998</v>
+      </c>
+      <c r="D16" s="1">
+        <v>-0.69966139999999999</v>
+      </c>
+      <c r="E16" s="1">
+        <v>-0.58551010000000003</v>
+      </c>
+      <c r="F16" s="1">
+        <v>-0.41164390000000001</v>
+      </c>
+      <c r="G16" s="1">
+        <v>-0.54000499999999996</v>
+      </c>
+      <c r="H16" s="2">
+        <v>0.88254096999999998</v>
+      </c>
+      <c r="I16" s="2">
+        <v>0.93469517000000002</v>
+      </c>
+      <c r="J16" s="2">
+        <v>0.96308914999999995</v>
+      </c>
+      <c r="K16" s="2">
+        <v>0.96985191999999998</v>
+      </c>
+      <c r="L16" s="1">
+        <v>0.3312621</v>
+      </c>
+      <c r="M16" s="1">
+        <v>-0.75126669999999995</v>
+      </c>
+      <c r="N16" s="1">
+        <v>0.66578059999999994</v>
+      </c>
+      <c r="O16" s="1">
+        <v>0.53352358</v>
+      </c>
+      <c r="P16" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>0.94008362000000001</v>
+      </c>
+      <c r="R16" s="2">
+        <v>0.99705208999999995</v>
+      </c>
+      <c r="S16" s="1">
+        <v>0.32138171999999998</v>
+      </c>
+      <c r="T16" s="1">
+        <v>0.59929949999999999</v>
+      </c>
+      <c r="U16" s="2">
+        <v>0.87329619000000003</v>
+      </c>
+      <c r="V16" s="2">
+        <v>0.90537917999999995</v>
+      </c>
+      <c r="W16" s="1">
+        <v>-0.78894839999999999</v>
+      </c>
+      <c r="X16" s="3">
+        <v>-0.2387802</v>
+      </c>
+      <c r="Y16" s="1">
+        <v>0.61378074999999999</v>
+      </c>
+      <c r="Z16" s="1">
+        <v>-0.42346240000000002</v>
+      </c>
+      <c r="AA16" s="2">
+        <v>0.98631650000000004</v>
+      </c>
+      <c r="AB16" s="3">
+        <v>0.29447086</v>
+      </c>
+      <c r="AC16" s="1">
+        <v>-0.63998189999999999</v>
+      </c>
+      <c r="AD16" s="2">
+        <v>0.92625654999999996</v>
+      </c>
+      <c r="AE16" s="2">
+        <v>0.90967872999999999</v>
+      </c>
+      <c r="AF16" s="2">
+        <v>0.96069868999999997</v>
+      </c>
+      <c r="AG16" s="2">
+        <v>0.91547361999999999</v>
+      </c>
+      <c r="AH16" s="2">
+        <v>0.93112832000000001</v>
+      </c>
+      <c r="AI16" s="3">
+        <v>-1.64248E-2</v>
+      </c>
+      <c r="AJ16" s="1">
+        <v>-0.38946429999999999</v>
+      </c>
+      <c r="AK16" s="1">
+        <v>-0.53245849999999995</v>
+      </c>
+      <c r="AL16" s="1">
+        <v>0.74126776999999999</v>
+      </c>
+      <c r="AM16" s="2">
+        <v>0.80721993000000003</v>
+      </c>
+      <c r="AN16" s="1">
+        <v>0.59278962000000002</v>
+      </c>
+      <c r="AO16" s="1">
+        <v>-0.64572949999999996</v>
+      </c>
+      <c r="AP16" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0.63144412999999999</v>
+      </c>
+      <c r="C17" s="1">
+        <v>-0.3927582</v>
+      </c>
+      <c r="D17" s="2">
+        <v>-0.8158898</v>
+      </c>
+      <c r="E17" s="1">
+        <v>-0.72012169999999998</v>
+      </c>
+      <c r="F17" s="1">
+        <v>-0.54661369999999998</v>
+      </c>
+      <c r="G17" s="1">
+        <v>-0.6624835</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0.79037201000000001</v>
+      </c>
+      <c r="I17" s="2">
+        <v>0.96327014</v>
+      </c>
+      <c r="J17" s="2">
+        <v>0.95320203000000003</v>
+      </c>
+      <c r="K17" s="2">
+        <v>0.95659253</v>
+      </c>
+      <c r="L17" s="1">
+        <v>0.46964984999999998</v>
+      </c>
+      <c r="M17" s="1">
+        <v>-0.67091559999999995</v>
+      </c>
+      <c r="N17" s="1">
+        <v>0.69071214000000003</v>
+      </c>
+      <c r="O17" s="1">
+        <v>0.35636783999999999</v>
+      </c>
+      <c r="P17" s="2">
+        <v>0.94008362000000001</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>1</v>
+      </c>
+      <c r="R17" s="2">
+        <v>0.94753224000000003</v>
+      </c>
+      <c r="S17" s="3">
+        <v>0.25091722999999999</v>
+      </c>
+      <c r="T17" s="1">
+        <v>0.64556053000000002</v>
+      </c>
+      <c r="U17" s="2">
+        <v>0.82637137999999999</v>
+      </c>
+      <c r="V17" s="2">
+        <v>0.97803865999999995</v>
+      </c>
+      <c r="W17" s="1">
+        <v>-0.68671499999999996</v>
+      </c>
+      <c r="X17" s="3">
+        <v>-0.11928469999999999</v>
+      </c>
+      <c r="Y17" s="1">
+        <v>0.49933358</v>
+      </c>
+      <c r="Z17" s="1">
+        <v>-0.34082180000000001</v>
+      </c>
+      <c r="AA17" s="2">
+        <v>0.95672327000000001</v>
+      </c>
+      <c r="AB17" s="1">
+        <v>0.39512040999999998</v>
+      </c>
+      <c r="AC17" s="1">
+        <v>-0.75500140000000004</v>
+      </c>
+      <c r="AD17" s="2">
+        <v>0.81397706000000003</v>
+      </c>
+      <c r="AE17" s="2">
+        <v>0.82269205999999995</v>
+      </c>
+      <c r="AF17" s="2">
+        <v>0.96065168999999995</v>
+      </c>
+      <c r="AG17" s="2">
+        <v>0.95347718000000004</v>
+      </c>
+      <c r="AH17" s="2">
+        <v>0.88087762000000003</v>
+      </c>
+      <c r="AI17" s="3">
+        <v>-0.15812109999999999</v>
+      </c>
+      <c r="AJ17" s="1">
+        <v>-0.53013469999999996</v>
+      </c>
+      <c r="AK17" s="1">
+        <v>-0.64755790000000002</v>
+      </c>
+      <c r="AL17" s="1">
+        <v>0.79827303000000005</v>
+      </c>
+      <c r="AM17" s="1">
+        <v>0.75683067999999998</v>
+      </c>
+      <c r="AN17" s="1">
+        <v>0.61532851</v>
+      </c>
+      <c r="AO17" s="1">
+        <v>-0.70831290000000002</v>
+      </c>
+      <c r="AP17" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1">
+        <v>0.65972881000000005</v>
+      </c>
+      <c r="C18" s="3">
+        <v>-0.2635055</v>
+      </c>
+      <c r="D18" s="1">
+        <v>-0.6943452</v>
+      </c>
+      <c r="E18" s="1">
+        <v>-0.57673759999999996</v>
+      </c>
+      <c r="F18" s="1">
+        <v>-0.38995560000000001</v>
+      </c>
+      <c r="G18" s="1">
+        <v>-0.53035120000000002</v>
+      </c>
+      <c r="H18" s="2">
+        <v>0.88488827000000003</v>
+      </c>
+      <c r="I18" s="2">
+        <v>0.94308188000000004</v>
+      </c>
+      <c r="J18" s="2">
+        <v>0.96659991000000001</v>
+      </c>
+      <c r="K18" s="2">
+        <v>0.96983704000000004</v>
+      </c>
+      <c r="L18" s="1">
+        <v>0.30011611999999999</v>
+      </c>
+      <c r="M18" s="1">
+        <v>-0.74327220000000005</v>
+      </c>
+      <c r="N18" s="1">
+        <v>0.64383069999999998</v>
+      </c>
+      <c r="O18" s="1">
+        <v>0.53777998000000005</v>
+      </c>
+      <c r="P18" s="2">
+        <v>0.99705208999999995</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>0.94753224000000003</v>
+      </c>
+      <c r="R18" s="2">
+        <v>1</v>
+      </c>
+      <c r="S18" s="1">
+        <v>0.32193877999999998</v>
+      </c>
+      <c r="T18" s="1">
+        <v>0.59123956</v>
+      </c>
+      <c r="U18" s="2">
+        <v>0.88320527999999998</v>
+      </c>
+      <c r="V18" s="2">
+        <v>0.91285925999999995</v>
+      </c>
+      <c r="W18" s="1">
+        <v>-0.79083879999999995</v>
+      </c>
+      <c r="X18" s="3">
+        <v>-0.26334669999999999</v>
+      </c>
+      <c r="Y18" s="1">
+        <v>0.61776626000000001</v>
+      </c>
+      <c r="Z18" s="1">
+        <v>-0.46433249999999998</v>
+      </c>
+      <c r="AA18" s="2">
+        <v>0.98812999000000001</v>
+      </c>
+      <c r="AB18" s="3">
+        <v>0.26769619</v>
+      </c>
+      <c r="AC18" s="1">
+        <v>-0.62260910000000003</v>
+      </c>
+      <c r="AD18" s="2">
+        <v>0.91645542999999996</v>
+      </c>
+      <c r="AE18" s="2">
+        <v>0.90430228000000001</v>
+      </c>
+      <c r="AF18" s="2">
+        <v>0.96113636999999996</v>
+      </c>
+      <c r="AG18" s="2">
+        <v>0.91931896000000002</v>
+      </c>
+      <c r="AH18" s="2">
+        <v>0.94358830000000005</v>
+      </c>
+      <c r="AI18" s="3">
+        <v>2.449219E-2</v>
+      </c>
+      <c r="AJ18" s="1">
+        <v>-0.36134309999999997</v>
+      </c>
+      <c r="AK18" s="1">
+        <v>-0.50930940000000002</v>
+      </c>
+      <c r="AL18" s="1">
+        <v>0.71967510000000001</v>
+      </c>
+      <c r="AM18" s="2">
+        <v>0.82266426999999998</v>
+      </c>
+      <c r="AN18" s="1">
+        <v>0.60531882999999997</v>
+      </c>
+      <c r="AO18" s="1">
+        <v>-0.63124930000000001</v>
+      </c>
+      <c r="AP18" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1">
+        <v>0.78935838999999997</v>
+      </c>
+      <c r="C19" s="3">
+        <v>-0.20492199999999999</v>
+      </c>
+      <c r="D19" s="3">
+        <v>-0.1474366</v>
+      </c>
+      <c r="E19" s="3">
+        <v>0.16447165999999999</v>
+      </c>
+      <c r="F19" s="3">
+        <v>-2.34422E-2</v>
+      </c>
+      <c r="G19" s="3">
+        <v>-5.9863800000000002E-2</v>
+      </c>
+      <c r="H19" s="1">
+        <v>0.70590668000000001</v>
+      </c>
+      <c r="I19" s="1">
+        <v>0.46374720000000003</v>
+      </c>
+      <c r="J19" s="1">
+        <v>0.44131344</v>
+      </c>
+      <c r="K19" s="1">
+        <v>0.42856018000000001</v>
+      </c>
+      <c r="L19" s="3">
+        <v>7.0438230000000004E-2</v>
+      </c>
+      <c r="M19" s="2">
+        <v>-0.81542119999999996</v>
+      </c>
+      <c r="N19" s="1">
+        <v>0.59458036999999997</v>
+      </c>
+      <c r="O19" s="1">
+        <v>0.78119941999999998</v>
+      </c>
+      <c r="P19" s="1">
+        <v>0.32138171999999998</v>
+      </c>
+      <c r="Q19" s="3">
+        <v>0.25091722999999999</v>
+      </c>
+      <c r="R19" s="1">
+        <v>0.32193877999999998</v>
+      </c>
+      <c r="S19" s="2">
+        <v>1</v>
+      </c>
+      <c r="T19" s="3">
+        <v>0.28067636000000001</v>
+      </c>
+      <c r="U19" s="1">
+        <v>0.69581075000000003</v>
+      </c>
+      <c r="V19" s="3">
+        <v>0.28482014</v>
+      </c>
+      <c r="W19" s="1">
+        <v>-0.78521549999999996</v>
+      </c>
+      <c r="X19" s="1">
+        <v>0.31289499999999998</v>
+      </c>
+      <c r="Y19" s="1">
+        <v>0.70846956999999999</v>
+      </c>
+      <c r="Z19" s="3">
+        <v>-0.1365565</v>
+      </c>
+      <c r="AA19" s="1">
+        <v>0.35583167999999998</v>
+      </c>
+      <c r="AB19" s="1">
+        <v>0.34239807</v>
+      </c>
+      <c r="AC19" s="3">
+        <v>-0.1357273</v>
+      </c>
+      <c r="AD19" s="1">
+        <v>0.55214454000000002</v>
+      </c>
+      <c r="AE19" s="1">
+        <v>0.60984804000000004</v>
+      </c>
+      <c r="AF19" s="1">
+        <v>0.42155237000000001</v>
+      </c>
+      <c r="AG19" s="3">
+        <v>0.28798555999999997</v>
+      </c>
+      <c r="AH19" s="3">
+        <v>0.19103790000000001</v>
+      </c>
+      <c r="AI19" s="3">
+        <v>0.10124606</v>
+      </c>
+      <c r="AJ19" s="3">
+        <v>-0.1039069</v>
+      </c>
+      <c r="AK19" s="3">
+        <v>-0.13828509999999999</v>
+      </c>
+      <c r="AL19" s="1">
+        <v>0.32409579999999999</v>
+      </c>
+      <c r="AM19" s="1">
+        <v>0.66410084999999996</v>
+      </c>
+      <c r="AN19" s="1">
+        <v>0.37992248000000001</v>
+      </c>
+      <c r="AO19" s="3">
+        <v>-0.20074400000000001</v>
+      </c>
+      <c r="AP19" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1">
+        <v>0.71194084000000002</v>
+      </c>
+      <c r="C20" s="1">
+        <v>-0.3797606</v>
+      </c>
+      <c r="D20" s="1">
+        <v>-0.39679639999999999</v>
+      </c>
+      <c r="E20" s="1">
+        <v>-0.39754640000000002</v>
+      </c>
+      <c r="F20" s="1">
+        <v>-0.51975789999999999</v>
+      </c>
+      <c r="G20" s="1">
+        <v>-0.34366170000000001</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0.52476663999999995</v>
+      </c>
+      <c r="I20" s="1">
+        <v>0.68945917000000001</v>
+      </c>
+      <c r="J20" s="1">
+        <v>0.62446429999999997</v>
+      </c>
+      <c r="K20" s="1">
+        <v>0.60634354999999995</v>
+      </c>
+      <c r="L20" s="1">
+        <v>0.56748094000000004</v>
+      </c>
+      <c r="M20" s="1">
+        <v>-0.6146855</v>
+      </c>
+      <c r="N20" s="2">
+        <v>0.80368987000000003</v>
+      </c>
+      <c r="O20" s="1">
+        <v>0.41067924</v>
+      </c>
+      <c r="P20" s="1">
+        <v>0.59929949999999999</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>0.64556053000000002</v>
+      </c>
+      <c r="R20" s="1">
+        <v>0.59123956</v>
+      </c>
+      <c r="S20" s="3">
+        <v>0.28067636000000001</v>
+      </c>
+      <c r="T20" s="2">
+        <v>1</v>
+      </c>
+      <c r="U20" s="1">
+        <v>0.63998250000000001</v>
+      </c>
+      <c r="V20" s="1">
+        <v>0.60910010999999997</v>
+      </c>
+      <c r="W20" s="1">
+        <v>-0.51657569999999997</v>
+      </c>
+      <c r="X20" s="3">
+        <v>0.22357161</v>
+      </c>
+      <c r="Y20" s="1">
+        <v>0.57143988999999995</v>
+      </c>
+      <c r="Z20" s="3">
+        <v>-9.7171099999999996E-2</v>
+      </c>
+      <c r="AA20" s="1">
+        <v>0.56702554000000005</v>
+      </c>
+      <c r="AB20" s="1">
+        <v>0.74260455000000003</v>
+      </c>
+      <c r="AC20" s="1">
+        <v>-0.56344530000000004</v>
+      </c>
+      <c r="AD20" s="1">
+        <v>0.63878738999999995</v>
+      </c>
+      <c r="AE20" s="1">
+        <v>0.70051865000000002</v>
+      </c>
+      <c r="AF20" s="1">
+        <v>0.63427517</v>
+      </c>
+      <c r="AG20" s="1">
+        <v>0.53816125000000004</v>
+      </c>
+      <c r="AH20" s="1">
+        <v>0.40617868000000001</v>
+      </c>
+      <c r="AI20" s="3">
+        <v>-0.21737619999999999</v>
+      </c>
+      <c r="AJ20" s="1">
+        <v>-0.64227040000000002</v>
+      </c>
+      <c r="AK20" s="1">
+        <v>-0.68416410000000005</v>
+      </c>
+      <c r="AL20" s="1">
+        <v>0.68836103000000004</v>
+      </c>
+      <c r="AM20" s="1">
+        <v>0.67129139999999998</v>
+      </c>
+      <c r="AN20" s="3">
+        <v>3.4111210000000003E-2</v>
+      </c>
+      <c r="AO20" s="1">
+        <v>-0.39434059999999999</v>
+      </c>
+      <c r="AP20" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="2">
+        <v>0.87517224999999998</v>
+      </c>
+      <c r="C21" s="3">
+        <v>-0.2531254</v>
+      </c>
+      <c r="D21" s="1">
+        <v>-0.53618969999999999</v>
+      </c>
+      <c r="E21" s="1">
+        <v>-0.3270344</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-0.28175820000000001</v>
+      </c>
+      <c r="G21" s="1">
+        <v>-0.37954310000000002</v>
+      </c>
+      <c r="H21" s="2">
+        <v>0.97293521000000005</v>
+      </c>
+      <c r="I21" s="2">
+        <v>0.92442833999999996</v>
+      </c>
+      <c r="J21" s="2">
+        <v>0.91549424999999995</v>
+      </c>
+      <c r="K21" s="2">
+        <v>0.90297519999999998</v>
+      </c>
+      <c r="L21" s="3">
+        <v>0.25053431999999998</v>
+      </c>
+      <c r="M21" s="2">
+        <v>-0.92484100000000002</v>
+      </c>
+      <c r="N21" s="1">
+        <v>0.74437065999999996</v>
+      </c>
+      <c r="O21" s="1">
+        <v>0.76756453999999996</v>
+      </c>
+      <c r="P21" s="2">
+        <v>0.87329619000000003</v>
+      </c>
+      <c r="Q21" s="2">
+        <v>0.82637137999999999</v>
+      </c>
+      <c r="R21" s="2">
+        <v>0.88320527999999998</v>
+      </c>
+      <c r="S21" s="1">
+        <v>0.69581075000000003</v>
+      </c>
+      <c r="T21" s="1">
+        <v>0.63998250000000001</v>
+      </c>
+      <c r="U21" s="2">
+        <v>1</v>
+      </c>
+      <c r="V21" s="2">
+        <v>0.80994975999999996</v>
+      </c>
+      <c r="W21" s="2">
+        <v>-0.93512039999999996</v>
+      </c>
+      <c r="X21" s="3">
+        <v>-4.2318099999999997E-2</v>
+      </c>
+      <c r="Y21" s="2">
+        <v>0.83272679000000005</v>
+      </c>
+      <c r="Z21" s="1">
+        <v>-0.46154640000000002</v>
+      </c>
+      <c r="AA21" s="2">
+        <v>0.89106527000000002</v>
+      </c>
+      <c r="AB21" s="1">
+        <v>0.38178579000000001</v>
+      </c>
+      <c r="AC21" s="1">
+        <v>-0.49911159999999999</v>
+      </c>
+      <c r="AD21" s="2">
+        <v>0.91380799999999995</v>
+      </c>
+      <c r="AE21" s="2">
+        <v>0.95143345000000001</v>
+      </c>
+      <c r="AF21" s="2">
+        <v>0.89821620000000002</v>
+      </c>
+      <c r="AG21" s="1">
+        <v>0.79431945999999998</v>
+      </c>
+      <c r="AH21" s="1">
+        <v>0.79762661000000001</v>
+      </c>
+      <c r="AI21" s="3">
+        <v>0.12106057000000001</v>
+      </c>
+      <c r="AJ21" s="1">
+        <v>-0.30684339999999999</v>
+      </c>
+      <c r="AK21" s="1">
+        <v>-0.43279079999999998</v>
+      </c>
+      <c r="AL21" s="1">
+        <v>0.66027961999999996</v>
+      </c>
+      <c r="AM21" s="2">
+        <v>0.96052263000000004</v>
+      </c>
+      <c r="AN21" s="1">
+        <v>0.55898484000000004</v>
+      </c>
+      <c r="AO21" s="1">
+        <v>-0.49810159999999998</v>
+      </c>
+      <c r="AP21" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="1">
+        <v>0.67977834999999998</v>
+      </c>
+      <c r="C22" s="1">
+        <v>-0.55042519999999995</v>
+      </c>
+      <c r="D22" s="2">
+        <v>-0.88519199999999998</v>
+      </c>
+      <c r="E22" s="1">
+        <v>-0.79530000000000001</v>
+      </c>
+      <c r="F22" s="1">
+        <v>-0.66097240000000002</v>
+      </c>
+      <c r="G22" s="1">
+        <v>-0.77884699999999996</v>
+      </c>
+      <c r="H22" s="1">
+        <v>0.77217663999999997</v>
+      </c>
+      <c r="I22" s="2">
+        <v>0.95135468000000001</v>
+      </c>
+      <c r="J22" s="2">
+        <v>0.95997838000000002</v>
+      </c>
+      <c r="K22" s="2">
+        <v>0.95814743999999996</v>
+      </c>
+      <c r="L22" s="1">
+        <v>0.53788575000000005</v>
+      </c>
+      <c r="M22" s="1">
+        <v>-0.65119689999999997</v>
+      </c>
+      <c r="N22" s="1">
+        <v>0.72671870000000005</v>
+      </c>
+      <c r="O22" s="1">
+        <v>0.30801320999999998</v>
+      </c>
+      <c r="P22" s="2">
+        <v>0.90537917999999995</v>
+      </c>
+      <c r="Q22" s="2">
+        <v>0.97803865999999995</v>
+      </c>
+      <c r="R22" s="2">
+        <v>0.91285925999999995</v>
+      </c>
+      <c r="S22" s="3">
+        <v>0.28482014</v>
+      </c>
+      <c r="T22" s="1">
+        <v>0.60910010999999997</v>
+      </c>
+      <c r="U22" s="2">
+        <v>0.80994975999999996</v>
+      </c>
+      <c r="V22" s="2">
+        <v>1</v>
+      </c>
+      <c r="W22" s="1">
+        <v>-0.67400839999999995</v>
+      </c>
+      <c r="X22" s="3">
+        <v>-0.14617649999999999</v>
+      </c>
+      <c r="Y22" s="1">
+        <v>0.41664762</v>
+      </c>
+      <c r="Z22" s="3">
+        <v>-0.22348850000000001</v>
+      </c>
+      <c r="AA22" s="2">
+        <v>0.92844842000000005</v>
+      </c>
+      <c r="AB22" s="1">
+        <v>0.47290694</v>
+      </c>
+      <c r="AC22" s="2">
+        <v>-0.83944799999999997</v>
+      </c>
+      <c r="AD22" s="2">
+        <v>0.80059407999999999</v>
+      </c>
+      <c r="AE22" s="2">
+        <v>0.82493618999999996</v>
+      </c>
+      <c r="AF22" s="2">
+        <v>0.96576227999999997</v>
+      </c>
+      <c r="AG22" s="2">
+        <v>0.98624208000000002</v>
+      </c>
+      <c r="AH22" s="2">
+        <v>0.83061054000000001</v>
+      </c>
+      <c r="AI22" s="3">
+        <v>-0.2415128</v>
+      </c>
+      <c r="AJ22" s="1">
+        <v>-0.60926939999999996</v>
+      </c>
+      <c r="AK22" s="1">
+        <v>-0.73368219999999995</v>
+      </c>
+      <c r="AL22" s="2">
+        <v>0.86720025000000001</v>
+      </c>
+      <c r="AM22" s="1">
+        <v>0.69620466000000003</v>
+      </c>
+      <c r="AN22" s="1">
+        <v>0.62932962999999997</v>
+      </c>
+      <c r="AO22" s="2">
+        <v>-0.80754890000000001</v>
+      </c>
+      <c r="AP22" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="2">
+        <v>-0.87581969999999998</v>
+      </c>
+      <c r="C23" s="3">
+        <v>0.23693094000000001</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0.45121503000000002</v>
+      </c>
+      <c r="E23" s="3">
+        <v>0.15612253000000001</v>
+      </c>
+      <c r="F23" s="3">
+        <v>0.15479598</v>
+      </c>
+      <c r="G23" s="3">
+        <v>0.28217706999999997</v>
+      </c>
+      <c r="H23" s="2">
+        <v>-0.97452190000000005</v>
+      </c>
+      <c r="I23" s="2">
+        <v>-0.84246540000000003</v>
+      </c>
+      <c r="J23" s="2">
+        <v>-0.8374587</v>
+      </c>
+      <c r="K23" s="2">
+        <v>-0.82731060000000001</v>
+      </c>
+      <c r="L23" s="3">
+        <v>-0.1300857</v>
+      </c>
+      <c r="M23" s="2">
+        <v>0.96718992999999998</v>
+      </c>
+      <c r="N23" s="1">
+        <v>-0.71649030000000002</v>
+      </c>
+      <c r="O23" s="2">
+        <v>-0.89310800000000001</v>
+      </c>
+      <c r="P23" s="1">
+        <v>-0.78894839999999999</v>
+      </c>
+      <c r="Q23" s="1">
+        <v>-0.68671499999999996</v>
+      </c>
+      <c r="R23" s="1">
+        <v>-0.79083879999999995</v>
+      </c>
+      <c r="S23" s="1">
+        <v>-0.78521549999999996</v>
+      </c>
+      <c r="T23" s="1">
+        <v>-0.51657569999999997</v>
+      </c>
+      <c r="U23" s="2">
+        <v>-0.93512039999999996</v>
+      </c>
+      <c r="V23" s="1">
+        <v>-0.67400839999999995</v>
+      </c>
+      <c r="W23" s="2">
+        <v>1</v>
+      </c>
+      <c r="X23" s="3">
+        <v>7.2611799999999999E-3</v>
+      </c>
+      <c r="Y23" s="2">
+        <v>-0.85807610000000001</v>
+      </c>
+      <c r="Z23" s="1">
+        <v>0.42150029</v>
+      </c>
+      <c r="AA23" s="1">
+        <v>-0.78609470000000004</v>
+      </c>
+      <c r="AB23" s="3">
+        <v>-0.28211540000000002</v>
+      </c>
+      <c r="AC23" s="1">
+        <v>0.39174376999999999</v>
+      </c>
+      <c r="AD23" s="2">
+        <v>-0.89402610000000005</v>
+      </c>
+      <c r="AE23" s="2">
+        <v>-0.92186120000000005</v>
+      </c>
+      <c r="AF23" s="2">
+        <v>-0.82366870000000003</v>
+      </c>
+      <c r="AG23" s="1">
+        <v>-0.69290810000000003</v>
+      </c>
+      <c r="AH23" s="1">
+        <v>-0.66120040000000002</v>
+      </c>
+      <c r="AI23" s="3">
+        <v>-0.110531</v>
+      </c>
+      <c r="AJ23" s="3">
+        <v>0.20117805</v>
+      </c>
+      <c r="AK23" s="1">
+        <v>0.34232828999999998</v>
+      </c>
+      <c r="AL23" s="1">
+        <v>-0.57420979999999999</v>
+      </c>
+      <c r="AM23" s="2">
+        <v>-0.91829709999999998</v>
+      </c>
+      <c r="AN23" s="1">
+        <v>-0.56926600000000005</v>
+      </c>
+      <c r="AO23" s="1">
+        <v>0.47166084000000003</v>
+      </c>
+      <c r="AP23" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="3">
+        <v>0.13930492999999999</v>
+      </c>
+      <c r="C24" s="3">
+        <v>-9.8808800000000002E-2</v>
+      </c>
+      <c r="D24" s="3">
+        <v>-1.9390000000000001E-2</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0.11689155</v>
+      </c>
+      <c r="F24" s="3">
+        <v>-0.1123861</v>
+      </c>
+      <c r="G24" s="3">
+        <v>1.567439E-2</v>
+      </c>
+      <c r="H24" s="3">
+        <v>-6.6528900000000002E-2</v>
+      </c>
+      <c r="I24" s="3">
+        <v>-5.9718E-2</v>
+      </c>
+      <c r="J24" s="3">
+        <v>-0.1753604</v>
+      </c>
+      <c r="K24" s="3">
+        <v>-0.13097549999999999</v>
+      </c>
+      <c r="L24" s="1">
+        <v>0.48327625000000002</v>
+      </c>
+      <c r="M24" s="3">
+        <v>-0.2062599</v>
+      </c>
+      <c r="N24" s="1">
+        <v>0.35330140999999998</v>
+      </c>
+      <c r="O24" s="3">
+        <v>-1.519E-2</v>
+      </c>
+      <c r="P24" s="3">
+        <v>-0.2387802</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>-0.11928469999999999</v>
+      </c>
+      <c r="R24" s="3">
+        <v>-0.26334669999999999</v>
+      </c>
+      <c r="S24" s="1">
+        <v>0.31289499999999998</v>
+      </c>
+      <c r="T24" s="3">
+        <v>0.22357161</v>
+      </c>
+      <c r="U24" s="3">
+        <v>-4.2318099999999997E-2</v>
+      </c>
+      <c r="V24" s="3">
+        <v>-0.14617649999999999</v>
+      </c>
+      <c r="W24" s="3">
+        <v>7.2611799999999999E-3</v>
+      </c>
+      <c r="X24" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y24" s="3">
+        <v>0.1179603</v>
+      </c>
+      <c r="Z24" s="1">
+        <v>0.51414371999999997</v>
+      </c>
+      <c r="AA24" s="3">
+        <v>-0.233934</v>
+      </c>
+      <c r="AB24" s="1">
+        <v>0.47972302999999999</v>
+      </c>
+      <c r="AC24" s="3">
+        <v>-9.7004699999999999E-2</v>
+      </c>
+      <c r="AD24" s="3">
+        <v>-7.12724E-2</v>
+      </c>
+      <c r="AE24" s="3">
+        <v>-9.3375100000000003E-2</v>
+      </c>
+      <c r="AF24" s="3">
+        <v>-0.13426540000000001</v>
+      </c>
+      <c r="AG24" s="3">
+        <v>-0.24315290000000001</v>
+      </c>
+      <c r="AH24" s="1">
+        <v>-0.37021500000000002</v>
+      </c>
+      <c r="AI24" s="1">
+        <v>-0.53513529999999998</v>
+      </c>
+      <c r="AJ24" s="1">
+        <v>-0.37919320000000001</v>
+      </c>
+      <c r="AK24" s="3">
+        <v>-0.17785860000000001</v>
+      </c>
+      <c r="AL24" s="3">
+        <v>9.9589549999999999E-2</v>
+      </c>
+      <c r="AM24" s="3">
+        <v>-2.1857000000000001E-3</v>
+      </c>
+      <c r="AN24" s="1">
+        <v>-0.31375180000000003</v>
+      </c>
+      <c r="AO24" s="3">
+        <v>-2.1527E-3</v>
+      </c>
+      <c r="AP24" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="1">
+        <v>0.73692924000000004</v>
+      </c>
+      <c r="C25" s="3">
+        <v>0.14536093999999999</v>
+      </c>
+      <c r="D25" s="3">
+        <v>-6.8847500000000006E-2</v>
+      </c>
+      <c r="E25" s="3">
+        <v>0.16757005</v>
+      </c>
+      <c r="F25" s="3">
+        <v>0.15068388999999999</v>
+      </c>
+      <c r="G25" s="3">
+        <v>0.11427045</v>
+      </c>
+      <c r="H25" s="2">
+        <v>0.83189970999999996</v>
+      </c>
+      <c r="I25" s="1">
+        <v>0.66048275000000001</v>
+      </c>
+      <c r="J25" s="1">
+        <v>0.61126133000000005</v>
+      </c>
+      <c r="K25" s="1">
+        <v>0.59385063000000005</v>
+      </c>
+      <c r="L25" s="3">
+        <v>-3.9161500000000002E-2</v>
+      </c>
+      <c r="M25" s="2">
+        <v>-0.88510330000000004</v>
+      </c>
+      <c r="N25" s="1">
+        <v>0.52765154000000003</v>
+      </c>
+      <c r="O25" s="2">
+        <v>0.92034634000000004</v>
+      </c>
+      <c r="P25" s="1">
+        <v>0.61378074999999999</v>
+      </c>
+      <c r="Q25" s="1">
+        <v>0.49933358</v>
+      </c>
+      <c r="R25" s="1">
+        <v>0.61776626000000001</v>
+      </c>
+      <c r="S25" s="1">
+        <v>0.70846956999999999</v>
+      </c>
+      <c r="T25" s="1">
+        <v>0.57143988999999995</v>
+      </c>
+      <c r="U25" s="2">
+        <v>0.83272679000000005</v>
+      </c>
+      <c r="V25" s="1">
+        <v>0.41664762</v>
+      </c>
+      <c r="W25" s="2">
+        <v>-0.85807610000000001</v>
+      </c>
+      <c r="X25" s="3">
+        <v>0.1179603</v>
+      </c>
+      <c r="Y25" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z25" s="1">
+        <v>-0.57407079999999999</v>
+      </c>
+      <c r="AA25" s="1">
+        <v>0.61751957000000002</v>
+      </c>
+      <c r="AB25" s="3">
+        <v>0.17073867000000001</v>
+      </c>
+      <c r="AC25" s="3">
+        <v>-7.1625099999999997E-2</v>
+      </c>
+      <c r="AD25" s="1">
+        <v>0.71349892999999998</v>
+      </c>
+      <c r="AE25" s="1">
+        <v>0.75924963999999995</v>
+      </c>
+      <c r="AF25" s="1">
+        <v>0.59411513000000005</v>
+      </c>
+      <c r="AG25" s="1">
+        <v>0.38634866000000001</v>
+      </c>
+      <c r="AH25" s="1">
+        <v>0.56036037000000005</v>
+      </c>
+      <c r="AI25" s="1">
+        <v>0.32840892999999999</v>
+      </c>
+      <c r="AJ25" s="3">
+        <v>2.3149949999999999E-2</v>
+      </c>
+      <c r="AK25" s="3">
+        <v>-8.1422400000000006E-2</v>
+      </c>
+      <c r="AL25" s="3">
+        <v>0.28459990000000002</v>
+      </c>
+      <c r="AM25" s="2">
+        <v>0.92169902000000004</v>
+      </c>
+      <c r="AN25" s="3">
+        <v>0.26643984999999998</v>
+      </c>
+      <c r="AO25" s="3">
+        <v>-4.9975199999999997E-2</v>
+      </c>
+      <c r="AP25" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="3">
+        <v>-0.1091804</v>
+      </c>
+      <c r="C26" s="1">
+        <v>-0.56257279999999998</v>
+      </c>
+      <c r="D26" s="3">
+        <v>-0.18232429999999999</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-0.26509690000000002</v>
+      </c>
+      <c r="F26" s="1">
+        <v>-0.51975510000000003</v>
+      </c>
+      <c r="G26" s="1">
+        <v>-0.38199699999999998</v>
+      </c>
+      <c r="H26" s="1">
+        <v>-0.45015889999999997</v>
+      </c>
+      <c r="I26" s="1">
+        <v>-0.3647668</v>
+      </c>
+      <c r="J26" s="1">
+        <v>-0.3371593</v>
+      </c>
+      <c r="K26" s="3">
+        <v>-0.29836760000000001</v>
+      </c>
+      <c r="L26" s="1">
+        <v>0.63056330999999999</v>
+      </c>
+      <c r="M26" s="3">
+        <v>0.28743204</v>
+      </c>
+      <c r="N26" s="3">
+        <v>0.1678914</v>
+      </c>
+      <c r="O26" s="1">
+        <v>-0.53740220000000005</v>
+      </c>
+      <c r="P26" s="1">
+        <v>-0.42346240000000002</v>
+      </c>
+      <c r="Q26" s="1">
+        <v>-0.34082180000000001</v>
+      </c>
+      <c r="R26" s="1">
+        <v>-0.46433249999999998</v>
+      </c>
+      <c r="S26" s="3">
+        <v>-0.1365565</v>
+      </c>
+      <c r="T26" s="3">
+        <v>-9.7171099999999996E-2</v>
+      </c>
+      <c r="U26" s="1">
+        <v>-0.46154640000000002</v>
+      </c>
+      <c r="V26" s="3">
+        <v>-0.22348850000000001</v>
+      </c>
+      <c r="W26" s="1">
+        <v>0.42150029</v>
+      </c>
+      <c r="X26" s="1">
+        <v>0.51414371999999997</v>
+      </c>
+      <c r="Y26" s="1">
+        <v>-0.57407079999999999</v>
+      </c>
+      <c r="Z26" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA26" s="1">
+        <v>-0.45583560000000001</v>
+      </c>
+      <c r="AB26" s="1">
+        <v>0.52310692999999997</v>
+      </c>
+      <c r="AC26" s="1">
+        <v>-0.32836359999999998</v>
+      </c>
+      <c r="AD26" s="3">
+        <v>-0.2792579</v>
+      </c>
+      <c r="AE26" s="1">
+        <v>-0.31284200000000001</v>
+      </c>
+      <c r="AF26" s="3">
+        <v>-0.29841709999999999</v>
+      </c>
+      <c r="AG26" s="3">
+        <v>-0.2296058</v>
+      </c>
+      <c r="AH26" s="1">
+        <v>-0.57755049999999997</v>
+      </c>
+      <c r="AI26" s="2">
+        <v>-0.83186950000000004</v>
+      </c>
+      <c r="AJ26" s="1">
+        <v>-0.56930840000000005</v>
+      </c>
+      <c r="AK26" s="1">
+        <v>-0.40768070000000001</v>
+      </c>
+      <c r="AL26" s="3">
+        <v>0.21529656999999999</v>
+      </c>
+      <c r="AM26" s="1">
+        <v>-0.59858440000000002</v>
+      </c>
+      <c r="AN26" s="1">
+        <v>-0.43589480000000003</v>
+      </c>
+      <c r="AO26" s="1">
+        <v>-0.31042150000000002</v>
+      </c>
+      <c r="AP26" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="1">
+        <v>0.66575044999999999</v>
+      </c>
+      <c r="C27" s="3">
+        <v>-0.2774626</v>
+      </c>
+      <c r="D27" s="1">
+        <v>-0.70946880000000001</v>
+      </c>
+      <c r="E27" s="1">
+        <v>-0.59086740000000004</v>
+      </c>
+      <c r="F27" s="1">
+        <v>-0.40944979999999997</v>
+      </c>
+      <c r="G27" s="1">
+        <v>-0.54705020000000004</v>
+      </c>
+      <c r="H27" s="2">
+        <v>0.88833501000000004</v>
+      </c>
+      <c r="I27" s="2">
+        <v>0.94813972999999996</v>
+      </c>
+      <c r="J27" s="2">
+        <v>0.97025021</v>
+      </c>
+      <c r="K27" s="2">
+        <v>0.97150194000000001</v>
+      </c>
+      <c r="L27" s="1">
+        <v>0.31621169999999998</v>
+      </c>
+      <c r="M27" s="1">
+        <v>-0.74996770000000001</v>
+      </c>
+      <c r="N27" s="1">
+        <v>0.64442416000000002</v>
+      </c>
+      <c r="O27" s="1">
+        <v>0.51173038999999998</v>
+      </c>
+      <c r="P27" s="2">
+        <v>0.98631650000000004</v>
+      </c>
+      <c r="Q27" s="2">
+        <v>0.95672327000000001</v>
+      </c>
+      <c r="R27" s="2">
+        <v>0.98812999000000001</v>
+      </c>
+      <c r="S27" s="1">
+        <v>0.35583167999999998</v>
+      </c>
+      <c r="T27" s="1">
+        <v>0.56702554000000005</v>
+      </c>
+      <c r="U27" s="2">
+        <v>0.89106527000000002</v>
+      </c>
+      <c r="V27" s="2">
+        <v>0.92844842000000005</v>
+      </c>
+      <c r="W27" s="1">
+        <v>-0.78609470000000004</v>
+      </c>
+      <c r="X27" s="3">
+        <v>-0.233934</v>
+      </c>
+      <c r="Y27" s="1">
+        <v>0.61751957000000002</v>
+      </c>
+      <c r="Z27" s="1">
+        <v>-0.45583560000000001</v>
+      </c>
+      <c r="AA27" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB27" s="3">
+        <v>0.28088492999999998</v>
+      </c>
+      <c r="AC27" s="1">
+        <v>-0.64114420000000005</v>
+      </c>
+      <c r="AD27" s="2">
+        <v>0.88567996999999998</v>
+      </c>
+      <c r="AE27" s="2">
+        <v>0.89017842999999997</v>
+      </c>
+      <c r="AF27" s="2">
+        <v>0.96693519000000006</v>
+      </c>
+      <c r="AG27" s="2">
+        <v>0.93188958</v>
+      </c>
+      <c r="AH27" s="2">
+        <v>0.94369521999999995</v>
+      </c>
+      <c r="AI27" s="3">
+        <v>5.8025200000000002E-3</v>
+      </c>
+      <c r="AJ27" s="1">
+        <v>-0.37243809999999999</v>
+      </c>
+      <c r="AK27" s="1">
+        <v>-0.51978990000000003</v>
+      </c>
+      <c r="AL27" s="1">
+        <v>0.73371350999999996</v>
+      </c>
+      <c r="AM27" s="2">
+        <v>0.81785713000000004</v>
+      </c>
+      <c r="AN27" s="1">
+        <v>0.66384637000000002</v>
+      </c>
+      <c r="AO27" s="1">
+        <v>-0.62748099999999996</v>
+      </c>
+      <c r="AP27" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" s="1">
+        <v>0.66090875999999998</v>
+      </c>
+      <c r="C28" s="1">
+        <v>-0.76671429999999996</v>
+      </c>
+      <c r="D28" s="1">
+        <v>-0.53218679999999996</v>
+      </c>
+      <c r="E28" s="1">
+        <v>-0.54750080000000001</v>
+      </c>
+      <c r="F28" s="2">
+        <v>-0.82330729999999996</v>
+      </c>
+      <c r="G28" s="1">
+        <v>-0.61943490000000001</v>
+      </c>
+      <c r="H28" s="3">
+        <v>0.28144284000000003</v>
+      </c>
+      <c r="I28" s="1">
+        <v>0.43708831999999997</v>
+      </c>
+      <c r="J28" s="1">
+        <v>0.41459918000000001</v>
+      </c>
+      <c r="K28" s="1">
+        <v>0.41634091000000001</v>
+      </c>
+      <c r="L28" s="2">
+        <v>0.88186611000000004</v>
+      </c>
+      <c r="M28" s="1">
+        <v>-0.43771929999999998</v>
+      </c>
+      <c r="N28" s="2">
+        <v>0.85063555000000002</v>
+      </c>
+      <c r="O28" s="3">
+        <v>7.127203E-2</v>
+      </c>
+      <c r="P28" s="3">
+        <v>0.29447086</v>
+      </c>
+      <c r="Q28" s="1">
+        <v>0.39512040999999998</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0.26769619</v>
+      </c>
+      <c r="S28" s="1">
+        <v>0.34239807</v>
+      </c>
+      <c r="T28" s="1">
+        <v>0.74260455000000003</v>
+      </c>
+      <c r="U28" s="1">
+        <v>0.38178579000000001</v>
+      </c>
+      <c r="V28" s="1">
+        <v>0.47290694</v>
+      </c>
+      <c r="W28" s="3">
+        <v>-0.28211540000000002</v>
+      </c>
+      <c r="X28" s="1">
+        <v>0.47972302999999999</v>
+      </c>
+      <c r="Y28" s="3">
+        <v>0.17073867000000001</v>
+      </c>
+      <c r="Z28" s="1">
+        <v>0.52310692999999997</v>
+      </c>
+      <c r="AA28" s="3">
+        <v>0.28088492999999998</v>
+      </c>
+      <c r="AB28" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC28" s="1">
+        <v>-0.74558290000000005</v>
+      </c>
+      <c r="AD28" s="1">
+        <v>0.42854393000000002</v>
+      </c>
+      <c r="AE28" s="1">
+        <v>0.48444190999999998</v>
+      </c>
+      <c r="AF28" s="1">
+        <v>0.43791369000000002</v>
+      </c>
+      <c r="AG28" s="1">
+        <v>0.41654210000000003</v>
+      </c>
+      <c r="AH28" s="3">
+        <v>4.7864690000000001E-2</v>
+      </c>
+      <c r="AI28" s="1">
+        <v>-0.66574319999999998</v>
+      </c>
+      <c r="AJ28" s="2">
+        <v>-0.91510089999999999</v>
+      </c>
+      <c r="AK28" s="2">
+        <v>-0.86377139999999997</v>
+      </c>
+      <c r="AL28" s="1">
+        <v>0.79366159999999997</v>
+      </c>
+      <c r="AM28" s="3">
+        <v>0.27142723000000002</v>
+      </c>
+      <c r="AN28" s="3">
+        <v>-7.1380200000000005E-2</v>
+      </c>
+      <c r="AO28" s="1">
+        <v>-0.60229730000000004</v>
+      </c>
+      <c r="AP28" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="1">
+        <v>-0.58129209999999998</v>
+      </c>
+      <c r="C29" s="2">
+        <v>0.85194345000000005</v>
+      </c>
+      <c r="D29" s="2">
+        <v>0.94267756000000003</v>
+      </c>
+      <c r="E29" s="2">
+        <v>0.92839532000000002</v>
+      </c>
+      <c r="F29" s="2">
+        <v>0.94166667999999998</v>
+      </c>
+      <c r="G29" s="2">
+        <v>0.96079711000000001</v>
+      </c>
+      <c r="H29" s="1">
+        <v>-0.4684971</v>
+      </c>
+      <c r="I29" s="1">
+        <v>-0.71045159999999996</v>
+      </c>
+      <c r="J29" s="1">
+        <v>-0.73596700000000004</v>
+      </c>
+      <c r="K29" s="1">
+        <v>-0.75001830000000003</v>
+      </c>
+      <c r="L29" s="2">
+        <v>-0.86501680000000003</v>
+      </c>
+      <c r="M29" s="1">
+        <v>0.44084739000000001</v>
+      </c>
+      <c r="N29" s="1">
+        <v>-0.78138799999999997</v>
+      </c>
+      <c r="O29" s="3">
+        <v>1.86797E-2</v>
+      </c>
+      <c r="P29" s="1">
+        <v>-0.63998189999999999</v>
+      </c>
+      <c r="Q29" s="1">
+        <v>-0.75500140000000004</v>
+      </c>
+      <c r="R29" s="1">
+        <v>-0.62260910000000003</v>
+      </c>
+      <c r="S29" s="3">
+        <v>-0.1357273</v>
+      </c>
+      <c r="T29" s="1">
+        <v>-0.56344530000000004</v>
+      </c>
+      <c r="U29" s="1">
+        <v>-0.49911159999999999</v>
+      </c>
+      <c r="V29" s="2">
+        <v>-0.83944799999999997</v>
+      </c>
+      <c r="W29" s="1">
+        <v>0.39174376999999999</v>
+      </c>
+      <c r="X29" s="3">
+        <v>-9.7004699999999999E-2</v>
+      </c>
+      <c r="Y29" s="3">
+        <v>-7.1625099999999997E-2</v>
+      </c>
+      <c r="Z29" s="1">
+        <v>-0.32836359999999998</v>
+      </c>
+      <c r="AA29" s="1">
+        <v>-0.64114420000000005</v>
+      </c>
+      <c r="AB29" s="1">
+        <v>-0.74558290000000005</v>
+      </c>
+      <c r="AC29" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD29" s="1">
+        <v>-0.59943610000000003</v>
+      </c>
+      <c r="AE29" s="1">
+        <v>-0.6156431</v>
+      </c>
+      <c r="AF29" s="1">
+        <v>-0.76501459999999999</v>
+      </c>
+      <c r="AG29" s="2">
+        <v>-0.82612620000000003</v>
+      </c>
+      <c r="AH29" s="1">
+        <v>-0.47627809999999998</v>
+      </c>
+      <c r="AI29" s="1">
+        <v>0.70092498000000003</v>
+      </c>
+      <c r="AJ29" s="2">
+        <v>0.91134203999999996</v>
+      </c>
+      <c r="AK29" s="2">
+        <v>0.95892177000000001</v>
+      </c>
+      <c r="AL29" s="2">
+        <v>-0.96212439999999999</v>
+      </c>
+      <c r="AM29" s="1">
+        <v>-0.32218799999999997</v>
+      </c>
+      <c r="AN29" s="1">
+        <v>-0.34721800000000003</v>
+      </c>
+      <c r="AO29" s="2">
+        <v>0.94433668999999998</v>
+      </c>
+      <c r="AP29" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" s="2">
+        <v>0.82026905999999999</v>
+      </c>
+      <c r="C30" s="1">
+        <v>-0.34488740000000001</v>
+      </c>
+      <c r="D30" s="1">
+        <v>-0.62320310000000001</v>
+      </c>
+      <c r="E30" s="1">
+        <v>-0.4421776</v>
+      </c>
+      <c r="F30" s="1">
+        <v>-0.39195429999999998</v>
+      </c>
+      <c r="G30" s="1">
+        <v>-0.489562</v>
+      </c>
+      <c r="H30" s="2">
+        <v>0.93550924999999996</v>
+      </c>
+      <c r="I30" s="2">
+        <v>0.88767763</v>
+      </c>
+      <c r="J30" s="2">
+        <v>0.91750180999999997</v>
+      </c>
+      <c r="K30" s="2">
+        <v>0.92791944000000004</v>
+      </c>
+      <c r="L30" s="1">
+        <v>0.373423</v>
+      </c>
+      <c r="M30" s="2">
+        <v>-0.88279879999999999</v>
+      </c>
+      <c r="N30" s="1">
+        <v>0.79367432000000004</v>
+      </c>
+      <c r="O30" s="1">
+        <v>0.70380682000000006</v>
+      </c>
+      <c r="P30" s="2">
+        <v>0.92625654999999996</v>
+      </c>
+      <c r="Q30" s="2">
+        <v>0.81397706000000003</v>
+      </c>
+      <c r="R30" s="2">
+        <v>0.91645542999999996</v>
+      </c>
+      <c r="S30" s="1">
+        <v>0.55214454000000002</v>
+      </c>
+      <c r="T30" s="1">
+        <v>0.63878738999999995</v>
+      </c>
+      <c r="U30" s="2">
+        <v>0.91380799999999995</v>
+      </c>
+      <c r="V30" s="2">
+        <v>0.80059407999999999</v>
+      </c>
+      <c r="W30" s="2">
+        <v>-0.89402610000000005</v>
+      </c>
+      <c r="X30" s="3">
+        <v>-7.12724E-2</v>
+      </c>
+      <c r="Y30" s="1">
+        <v>0.71349892999999998</v>
+      </c>
+      <c r="Z30" s="3">
+        <v>-0.2792579</v>
+      </c>
+      <c r="AA30" s="2">
+        <v>0.88567996999999998</v>
+      </c>
+      <c r="AB30" s="1">
+        <v>0.42854393000000002</v>
+      </c>
+      <c r="AC30" s="1">
+        <v>-0.59943610000000003</v>
+      </c>
+      <c r="AD30" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE30" s="2">
+        <v>0.97565411000000002</v>
+      </c>
+      <c r="AF30" s="2">
+        <v>0.91004646</v>
+      </c>
+      <c r="AG30" s="2">
+        <v>0.81396354000000004</v>
+      </c>
+      <c r="AH30" s="1">
+        <v>0.79000925</v>
+      </c>
+      <c r="AI30" s="3">
+        <v>-5.8073100000000002E-2</v>
+      </c>
+      <c r="AJ30" s="1">
+        <v>-0.42305310000000002</v>
+      </c>
+      <c r="AK30" s="1">
+        <v>-0.53582099999999999</v>
+      </c>
+      <c r="AL30" s="1">
+        <v>0.75024089999999999</v>
+      </c>
+      <c r="AM30" s="2">
+        <v>0.84465394999999999</v>
+      </c>
+      <c r="AN30" s="1">
+        <v>0.44965681000000002</v>
+      </c>
+      <c r="AO30" s="1">
+        <v>-0.64895329999999996</v>
+      </c>
+      <c r="AP30" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" s="2">
+        <v>0.90165790999999995</v>
+      </c>
+      <c r="C31" s="1">
+        <v>-0.40335870000000001</v>
+      </c>
+      <c r="D31" s="1">
+        <v>-0.60576450000000004</v>
+      </c>
+      <c r="E31" s="1">
+        <v>-0.43279529999999999</v>
+      </c>
+      <c r="F31" s="1">
+        <v>-0.42516690000000001</v>
+      </c>
+      <c r="G31" s="1">
+        <v>-0.49129299999999998</v>
+      </c>
+      <c r="H31" s="2">
+        <v>0.94963872999999999</v>
+      </c>
+      <c r="I31" s="2">
+        <v>0.91800526000000005</v>
+      </c>
+      <c r="J31" s="2">
+        <v>0.93903727999999997</v>
+      </c>
+      <c r="K31" s="2">
+        <v>0.93046432999999995</v>
+      </c>
+      <c r="L31" s="1">
+        <v>0.36606971999999999</v>
+      </c>
+      <c r="M31" s="2">
+        <v>-0.91098979999999996</v>
+      </c>
+      <c r="N31" s="2">
+        <v>0.82560518999999999</v>
+      </c>
+      <c r="O31" s="1">
+        <v>0.73824853999999995</v>
+      </c>
+      <c r="P31" s="2">
+        <v>0.90967872999999999</v>
+      </c>
+      <c r="Q31" s="2">
+        <v>0.82269205999999995</v>
+      </c>
+      <c r="R31" s="2">
+        <v>0.90430228000000001</v>
+      </c>
+      <c r="S31" s="1">
+        <v>0.60984804000000004</v>
+      </c>
+      <c r="T31" s="1">
+        <v>0.70051865000000002</v>
+      </c>
+      <c r="U31" s="2">
+        <v>0.95143345000000001</v>
+      </c>
+      <c r="V31" s="2">
+        <v>0.82493618999999996</v>
+      </c>
+      <c r="W31" s="2">
+        <v>-0.92186120000000005</v>
+      </c>
+      <c r="X31" s="3">
+        <v>-9.3375100000000003E-2</v>
+      </c>
+      <c r="Y31" s="1">
+        <v>0.75924963999999995</v>
+      </c>
+      <c r="Z31" s="1">
+        <v>-0.31284200000000001</v>
+      </c>
+      <c r="AA31" s="2">
+        <v>0.89017842999999997</v>
+      </c>
+      <c r="AB31" s="1">
+        <v>0.48444190999999998</v>
+      </c>
+      <c r="AC31" s="1">
+        <v>-0.6156431</v>
+      </c>
+      <c r="AD31" s="2">
+        <v>0.97565411000000002</v>
+      </c>
+      <c r="AE31" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF31" s="2">
+        <v>0.92866923000000001</v>
+      </c>
+      <c r="AG31" s="2">
+        <v>0.83393483000000002</v>
+      </c>
+      <c r="AH31" s="1">
+        <v>0.76641928999999998</v>
+      </c>
+      <c r="AI31" s="3">
+        <v>-3.1867899999999998E-2</v>
+      </c>
+      <c r="AJ31" s="1">
+        <v>-0.44079040000000003</v>
+      </c>
+      <c r="AK31" s="1">
+        <v>-0.58081450000000001</v>
+      </c>
+      <c r="AL31" s="1">
+        <v>0.77759020999999995</v>
+      </c>
+      <c r="AM31" s="2">
+        <v>0.88700774999999998</v>
+      </c>
+      <c r="AN31" s="1">
+        <v>0.48443208999999998</v>
+      </c>
+      <c r="AO31" s="1">
+        <v>-0.63213569999999997</v>
+      </c>
+      <c r="AP31" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" s="1">
+        <v>0.77668334000000006</v>
+      </c>
+      <c r="C32" s="1">
+        <v>-0.474829</v>
+      </c>
+      <c r="D32" s="2">
+        <v>-0.80799120000000002</v>
+      </c>
+      <c r="E32" s="1">
+        <v>-0.65964769999999995</v>
+      </c>
+      <c r="F32" s="1">
+        <v>-0.54885649999999997</v>
+      </c>
+      <c r="G32" s="1">
+        <v>-0.67471570000000003</v>
+      </c>
+      <c r="H32" s="2">
+        <v>0.89492791000000005</v>
+      </c>
+      <c r="I32" s="2">
+        <v>0.98340316000000005</v>
+      </c>
+      <c r="J32" s="2">
+        <v>0.99747987000000005</v>
+      </c>
+      <c r="K32" s="2">
+        <v>0.99623903000000003</v>
+      </c>
+      <c r="L32" s="1">
+        <v>0.45637319999999998</v>
+      </c>
+      <c r="M32" s="1">
+        <v>-0.79914019999999997</v>
+      </c>
+      <c r="N32" s="1">
+        <v>0.77345185000000005</v>
+      </c>
+      <c r="O32" s="1">
+        <v>0.51842635000000004</v>
+      </c>
+      <c r="P32" s="2">
+        <v>0.96069868999999997</v>
+      </c>
+      <c r="Q32" s="2">
+        <v>0.96065168999999995</v>
+      </c>
+      <c r="R32" s="2">
+        <v>0.96113636999999996</v>
+      </c>
+      <c r="S32" s="1">
+        <v>0.42155237000000001</v>
+      </c>
+      <c r="T32" s="1">
+        <v>0.63427517</v>
+      </c>
+      <c r="U32" s="2">
+        <v>0.89821620000000002</v>
+      </c>
+      <c r="V32" s="2">
+        <v>0.96576227999999997</v>
+      </c>
+      <c r="W32" s="2">
+        <v>-0.82366870000000003</v>
+      </c>
+      <c r="X32" s="3">
+        <v>-0.13426540000000001</v>
+      </c>
+      <c r="Y32" s="1">
+        <v>0.59411513000000005</v>
+      </c>
+      <c r="Z32" s="3">
+        <v>-0.29841709999999999</v>
+      </c>
+      <c r="AA32" s="2">
+        <v>0.96693519000000006</v>
+      </c>
+      <c r="AB32" s="1">
+        <v>0.43791369000000002</v>
+      </c>
+      <c r="AC32" s="1">
+        <v>-0.76501459999999999</v>
+      </c>
+      <c r="AD32" s="2">
+        <v>0.91004646</v>
+      </c>
+      <c r="AE32" s="2">
+        <v>0.92866923000000001</v>
+      </c>
+      <c r="AF32" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG32" s="2">
+        <v>0.96682562000000005</v>
+      </c>
+      <c r="AH32" s="2">
+        <v>0.85978655999999998</v>
+      </c>
+      <c r="AI32" s="3">
+        <v>-0.16369719999999999</v>
+      </c>
+      <c r="AJ32" s="1">
+        <v>-0.52721119999999999</v>
+      </c>
+      <c r="AK32" s="1">
+        <v>-0.67195640000000001</v>
+      </c>
+      <c r="AL32" s="2">
+        <v>0.84694130999999995</v>
+      </c>
+      <c r="AM32" s="2">
+        <v>0.80841129</v>
+      </c>
+      <c r="AN32" s="1">
+        <v>0.62721914999999995</v>
+      </c>
+      <c r="AO32" s="1">
+        <v>-0.76469679999999995</v>
+      </c>
+      <c r="AP32" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33" s="1">
+        <v>0.66945345999999994</v>
+      </c>
+      <c r="C33" s="1">
+        <v>-0.56985969999999997</v>
+      </c>
+      <c r="D33" s="2">
+        <v>-0.88418260000000004</v>
+      </c>
+      <c r="E33" s="1">
+        <v>-0.78760300000000005</v>
+      </c>
+      <c r="F33" s="1">
+        <v>-0.64907599999999999</v>
+      </c>
+      <c r="G33" s="1">
+        <v>-0.78429780000000004</v>
+      </c>
+      <c r="H33" s="1">
+        <v>0.78267054999999996</v>
+      </c>
+      <c r="I33" s="2">
+        <v>0.93222664</v>
+      </c>
+      <c r="J33" s="2">
+        <v>0.96346111000000001</v>
+      </c>
+      <c r="K33" s="2">
+        <v>0.96032138</v>
+      </c>
+      <c r="L33" s="1">
+        <v>0.47732071999999998</v>
+      </c>
+      <c r="M33" s="1">
+        <v>-0.64248640000000001</v>
+      </c>
+      <c r="N33" s="1">
+        <v>0.70164201999999998</v>
+      </c>
+      <c r="O33" s="1">
+        <v>0.32957890000000001</v>
+      </c>
+      <c r="P33" s="2">
+        <v>0.91547361999999999</v>
+      </c>
+      <c r="Q33" s="2">
+        <v>0.95347718000000004</v>
+      </c>
+      <c r="R33" s="2">
+        <v>0.91931896000000002</v>
+      </c>
+      <c r="S33" s="3">
+        <v>0.28798555999999997</v>
+      </c>
+      <c r="T33" s="1">
+        <v>0.53816125000000004</v>
+      </c>
+      <c r="U33" s="1">
+        <v>0.79431945999999998</v>
+      </c>
+      <c r="V33" s="2">
+        <v>0.98624208000000002</v>
+      </c>
+      <c r="W33" s="1">
+        <v>-0.69290810000000003</v>
+      </c>
+      <c r="X33" s="3">
+        <v>-0.24315290000000001</v>
+      </c>
+      <c r="Y33" s="1">
+        <v>0.38634866000000001</v>
+      </c>
+      <c r="Z33" s="3">
+        <v>-0.2296058</v>
+      </c>
+      <c r="AA33" s="2">
+        <v>0.93188958</v>
+      </c>
+      <c r="AB33" s="1">
+        <v>0.41654210000000003</v>
+      </c>
+      <c r="AC33" s="2">
+        <v>-0.82612620000000003</v>
+      </c>
+      <c r="AD33" s="2">
+        <v>0.81396354000000004</v>
+      </c>
+      <c r="AE33" s="2">
+        <v>0.83393483000000002</v>
+      </c>
+      <c r="AF33" s="2">
+        <v>0.96682562000000005</v>
+      </c>
+      <c r="AG33" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH33" s="2">
+        <v>0.82727879999999998</v>
+      </c>
+      <c r="AI33" s="3">
+        <v>-0.21697530000000001</v>
+      </c>
+      <c r="AJ33" s="1">
+        <v>-0.56692399999999998</v>
+      </c>
+      <c r="AK33" s="1">
+        <v>-0.71314739999999999</v>
+      </c>
+      <c r="AL33" s="2">
+        <v>0.86183131000000002</v>
+      </c>
+      <c r="AM33" s="1">
+        <v>0.66587286999999995</v>
+      </c>
+      <c r="AN33" s="1">
+        <v>0.69408088000000001</v>
+      </c>
+      <c r="AO33" s="2">
+        <v>-0.831036</v>
+      </c>
+      <c r="AP33" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34" s="1">
+        <v>0.47187259999999998</v>
+      </c>
+      <c r="C34" s="3">
+        <v>-5.3343000000000002E-2</v>
+      </c>
+      <c r="D34" s="1">
+        <v>-0.58732019999999996</v>
+      </c>
+      <c r="E34" s="1">
+        <v>-0.50861809999999996</v>
+      </c>
+      <c r="F34" s="3">
+        <v>-0.22419249999999999</v>
+      </c>
+      <c r="G34" s="1">
+        <v>-0.42027350000000002</v>
+      </c>
+      <c r="H34" s="1">
+        <v>0.79880918999999995</v>
+      </c>
+      <c r="I34" s="2">
+        <v>0.83785299999999996</v>
+      </c>
+      <c r="J34" s="2">
+        <v>0.87218300000000004</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L34" s="3">
+        <v>0.15366458</v>
+      </c>
+      <c r="M34" s="1">
+        <v>-0.60055879999999995</v>
+      </c>
+      <c r="N34" s="1">
+        <v>0.40263439000000001</v>
+      </c>
+      <c r="O34" s="1">
+        <v>0.43204966</v>
+      </c>
+      <c r="P34" s="2">
+        <v>0.93112832000000001</v>
+      </c>
+      <c r="Q34" s="2">
+        <v>0.88087762000000003</v>
+      </c>
+      <c r="R34" s="2">
+        <v>0.94358830000000005</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0.19103790000000001</v>
+      </c>
+      <c r="T34" s="1">
+        <v>0.40617868000000001</v>
+      </c>
+      <c r="U34" s="1">
+        <v>0.79762661000000001</v>
+      </c>
+      <c r="V34" s="2">
+        <v>0.83061054000000001</v>
+      </c>
+      <c r="W34" s="1">
+        <v>-0.66120040000000002</v>
+      </c>
+      <c r="X34" s="1">
+        <v>-0.37021500000000002</v>
+      </c>
+      <c r="Y34" s="1">
+        <v>0.56036037000000005</v>
+      </c>
+      <c r="Z34" s="1">
+        <v>-0.57755049999999997</v>
+      </c>
+      <c r="AA34" s="2">
+        <v>0.94369521999999995</v>
+      </c>
+      <c r="AB34" s="3">
+        <v>4.7864690000000001E-2</v>
+      </c>
+      <c r="AC34" s="1">
+        <v>-0.47627809999999998</v>
+      </c>
+      <c r="AD34" s="1">
+        <v>0.79000925</v>
+      </c>
+      <c r="AE34" s="1">
+        <v>0.76641928999999998</v>
+      </c>
+      <c r="AF34" s="2">
+        <v>0.85978655999999998</v>
+      </c>
+      <c r="AG34" s="2">
+        <v>0.82727879999999998</v>
+      </c>
+      <c r="AH34" s="2">
+        <v>1</v>
+      </c>
+      <c r="AI34" s="3">
+        <v>0.17430793</v>
+      </c>
+      <c r="AJ34" s="3">
+        <v>-0.1644688</v>
+      </c>
+      <c r="AK34" s="1">
+        <v>-0.31012440000000002</v>
+      </c>
+      <c r="AL34" s="1">
+        <v>0.53579372000000003</v>
+      </c>
+      <c r="AM34" s="1">
+        <v>0.74253095999999996</v>
+      </c>
+      <c r="AN34" s="1">
+        <v>0.55536092000000004</v>
+      </c>
+      <c r="AO34" s="1">
+        <v>-0.476109</v>
+      </c>
+      <c r="AP34" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35" s="3">
+        <v>-0.1357421</v>
+      </c>
+      <c r="C35" s="1">
+        <v>0.72191877000000004</v>
+      </c>
+      <c r="D35" s="1">
+        <v>0.59404572</v>
+      </c>
+      <c r="E35" s="1">
+        <v>0.60763436999999998</v>
+      </c>
+      <c r="F35" s="1">
+        <v>0.75581390000000004</v>
+      </c>
+      <c r="G35" s="1">
+        <v>0.68694089999999997</v>
+      </c>
+      <c r="H35" s="3">
+        <v>0.10302248999999999</v>
+      </c>
+      <c r="I35" s="3">
+        <v>-0.10967250000000001</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-0.10609109999999999</v>
+      </c>
+      <c r="K35" s="3">
+        <v>-0.14991260000000001</v>
+      </c>
+      <c r="L35" s="2">
+        <v>-0.86740390000000001</v>
+      </c>
+      <c r="M35" s="3">
+        <v>2.5891919999999999E-2</v>
+      </c>
+      <c r="N35" s="1">
+        <v>-0.47802149999999999</v>
+      </c>
+      <c r="O35" s="1">
+        <v>0.39292922000000002</v>
+      </c>
+      <c r="P35" s="3">
+        <v>-1.64248E-2</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>-0.15812109999999999</v>
+      </c>
+      <c r="R35" s="3">
+        <v>2.449219E-2</v>
+      </c>
+      <c r="S35" s="3">
+        <v>0.10124606</v>
+      </c>
+      <c r="T35" s="3">
+        <v>-0.21737619999999999</v>
+      </c>
+      <c r="U35" s="3">
+        <v>0.12106057000000001</v>
+      </c>
+      <c r="V35" s="3">
+        <v>-0.2415128</v>
+      </c>
+      <c r="W35" s="3">
+        <v>-0.110531</v>
+      </c>
+      <c r="X35" s="1">
+        <v>-0.53513529999999998</v>
+      </c>
+      <c r="Y35" s="1">
+        <v>0.32840892999999999</v>
+      </c>
+      <c r="Z35" s="2">
+        <v>-0.83186950000000004</v>
+      </c>
+      <c r="AA35" s="3">
+        <v>5.8025200000000002E-3</v>
+      </c>
+      <c r="AB35" s="1">
+        <v>-0.66574319999999998</v>
+      </c>
+      <c r="AC35" s="1">
+        <v>0.70092498000000003</v>
+      </c>
+      <c r="AD35" s="3">
+        <v>-5.8073100000000002E-2</v>
+      </c>
+      <c r="AE35" s="3">
+        <v>-3.1867899999999998E-2</v>
+      </c>
+      <c r="AF35" s="3">
+        <v>-0.16369719999999999</v>
+      </c>
+      <c r="AG35" s="3">
+        <v>-0.21697530000000001</v>
+      </c>
+      <c r="AH35" s="3">
+        <v>0.17430793</v>
+      </c>
+      <c r="AI35" s="2">
+        <v>1</v>
+      </c>
+      <c r="AJ35" s="2">
+        <v>0.83125916</v>
+      </c>
+      <c r="AK35" s="1">
+        <v>0.73459147000000002</v>
+      </c>
+      <c r="AL35" s="1">
+        <v>-0.58416420000000002</v>
+      </c>
+      <c r="AM35" s="3">
+        <v>0.2534865</v>
+      </c>
+      <c r="AN35" s="3">
+        <v>0.13329924000000001</v>
+      </c>
+      <c r="AO35" s="1">
+        <v>0.64803504000000001</v>
+      </c>
+      <c r="AP35" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36" s="1">
+        <v>-0.51205409999999996</v>
+      </c>
+      <c r="C36" s="2">
+        <v>0.85000107999999996</v>
+      </c>
+      <c r="D36" s="1">
+        <v>0.76462965999999999</v>
+      </c>
+      <c r="E36" s="1">
+        <v>0.79794387</v>
+      </c>
+      <c r="F36" s="2">
+        <v>0.94986106999999997</v>
+      </c>
+      <c r="G36" s="2">
+        <v>0.83141556999999999</v>
+      </c>
+      <c r="H36" s="3">
+        <v>-0.2410149</v>
+      </c>
+      <c r="I36" s="1">
+        <v>-0.4965271</v>
+      </c>
+      <c r="J36" s="1">
+        <v>-0.48915340000000002</v>
+      </c>
+      <c r="K36" s="1">
+        <v>-0.50798149999999997</v>
+      </c>
+      <c r="L36" s="2">
+        <v>-0.96980639999999996</v>
+      </c>
+      <c r="M36" s="1">
+        <v>0.32516026999999997</v>
+      </c>
+      <c r="N36" s="1">
+        <v>-0.79819490000000004</v>
+      </c>
+      <c r="O36" s="3">
+        <v>0.13189011</v>
+      </c>
+      <c r="P36" s="1">
+        <v>-0.38946429999999999</v>
+      </c>
+      <c r="Q36" s="1">
+        <v>-0.53013469999999996</v>
+      </c>
+      <c r="R36" s="1">
+        <v>-0.36134309999999997</v>
+      </c>
+      <c r="S36" s="3">
+        <v>-0.1039069</v>
+      </c>
+      <c r="T36" s="1">
+        <v>-0.64227040000000002</v>
+      </c>
+      <c r="U36" s="1">
+        <v>-0.30684339999999999</v>
+      </c>
+      <c r="V36" s="1">
+        <v>-0.60926939999999996</v>
+      </c>
+      <c r="W36" s="3">
+        <v>0.20117805</v>
+      </c>
+      <c r="X36" s="1">
+        <v>-0.37919320000000001</v>
+      </c>
+      <c r="Y36" s="3">
+        <v>2.3149949999999999E-2</v>
+      </c>
+      <c r="Z36" s="1">
+        <v>-0.56930840000000005</v>
+      </c>
+      <c r="AA36" s="1">
+        <v>-0.37243809999999999</v>
+      </c>
+      <c r="AB36" s="2">
+        <v>-0.91510089999999999</v>
+      </c>
+      <c r="AC36" s="2">
+        <v>0.91134203999999996</v>
+      </c>
+      <c r="AD36" s="1">
+        <v>-0.42305310000000002</v>
+      </c>
+      <c r="AE36" s="1">
+        <v>-0.44079040000000003</v>
+      </c>
+      <c r="AF36" s="1">
+        <v>-0.52721119999999999</v>
+      </c>
+      <c r="AG36" s="1">
+        <v>-0.56692399999999998</v>
+      </c>
+      <c r="AH36" s="3">
+        <v>-0.1644688</v>
+      </c>
+      <c r="AI36" s="2">
+        <v>0.83125916</v>
+      </c>
+      <c r="AJ36" s="2">
+        <v>1</v>
+      </c>
+      <c r="AK36" s="2">
+        <v>0.96171013999999999</v>
+      </c>
+      <c r="AL36" s="2">
+        <v>-0.88003819999999999</v>
+      </c>
+      <c r="AM36" s="3">
+        <v>-0.16251180000000001</v>
+      </c>
+      <c r="AN36" s="3">
+        <v>-5.4796200000000003E-2</v>
+      </c>
+      <c r="AO36" s="1">
+        <v>0.79766079000000001</v>
+      </c>
+      <c r="AP36" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37" s="1">
+        <v>-0.6183592</v>
+      </c>
+      <c r="C37" s="2">
+        <v>0.88822579000000002</v>
+      </c>
+      <c r="D37" s="2">
+        <v>0.82296141</v>
+      </c>
+      <c r="E37" s="2">
+        <v>0.84146767</v>
+      </c>
+      <c r="F37" s="2">
+        <v>0.95884530000000001</v>
+      </c>
+      <c r="G37" s="2">
+        <v>0.87816543000000002</v>
+      </c>
+      <c r="H37" s="1">
+        <v>-0.3798938</v>
+      </c>
+      <c r="I37" s="1">
+        <v>-0.63171770000000005</v>
+      </c>
+      <c r="J37" s="1">
+        <v>-0.64077729999999999</v>
+      </c>
+      <c r="K37" s="1">
+        <v>-0.64283959999999996</v>
+      </c>
+      <c r="L37" s="2">
+        <v>-0.89287760000000005</v>
+      </c>
+      <c r="M37" s="1">
+        <v>0.41950415000000002</v>
+      </c>
+      <c r="N37" s="2">
+        <v>-0.82764700000000002</v>
+      </c>
+      <c r="O37" s="3">
+        <v>2.3633399999999998E-3</v>
+      </c>
+      <c r="P37" s="1">
+        <v>-0.53245849999999995</v>
+      </c>
+      <c r="Q37" s="1">
+        <v>-0.64755790000000002</v>
+      </c>
+      <c r="R37" s="1">
+        <v>-0.50930940000000002</v>
+      </c>
+      <c r="S37" s="3">
+        <v>-0.13828509999999999</v>
+      </c>
+      <c r="T37" s="1">
+        <v>-0.68416410000000005</v>
+      </c>
+      <c r="U37" s="1">
+        <v>-0.43279079999999998</v>
+      </c>
+      <c r="V37" s="1">
+        <v>-0.73368219999999995</v>
+      </c>
+      <c r="W37" s="1">
+        <v>0.34232828999999998</v>
+      </c>
+      <c r="X37" s="3">
+        <v>-0.17785860000000001</v>
+      </c>
+      <c r="Y37" s="3">
+        <v>-8.1422400000000006E-2</v>
+      </c>
+      <c r="Z37" s="1">
+        <v>-0.40768070000000001</v>
+      </c>
+      <c r="AA37" s="1">
+        <v>-0.51978990000000003</v>
+      </c>
+      <c r="AB37" s="2">
+        <v>-0.86377139999999997</v>
+      </c>
+      <c r="AC37" s="2">
+        <v>0.95892177000000001</v>
+      </c>
+      <c r="AD37" s="1">
+        <v>-0.53582099999999999</v>
+      </c>
+      <c r="AE37" s="1">
+        <v>-0.58081450000000001</v>
+      </c>
+      <c r="AF37" s="1">
+        <v>-0.67195640000000001</v>
+      </c>
+      <c r="AG37" s="1">
+        <v>-0.71314739999999999</v>
+      </c>
+      <c r="AH37" s="1">
+        <v>-0.31012440000000002</v>
+      </c>
+      <c r="AI37" s="1">
+        <v>0.73459147000000002</v>
+      </c>
+      <c r="AJ37" s="2">
+        <v>0.96171013999999999</v>
+      </c>
+      <c r="AK37" s="2">
+        <v>1</v>
+      </c>
+      <c r="AL37" s="2">
+        <v>-0.94738900000000004</v>
+      </c>
+      <c r="AM37" s="3">
+        <v>-0.28748899999999999</v>
+      </c>
+      <c r="AN37" s="3">
+        <v>-0.19826079999999999</v>
+      </c>
+      <c r="AO37" s="2">
+        <v>0.86453215000000005</v>
+      </c>
+      <c r="AP37" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38" s="1">
+        <v>0.74778264999999999</v>
+      </c>
+      <c r="C38" s="2">
+        <v>-0.81282759999999998</v>
+      </c>
+      <c r="D38" s="2">
+        <v>-0.88371949999999999</v>
+      </c>
+      <c r="E38" s="2">
+        <v>-0.8298044</v>
+      </c>
+      <c r="F38" s="2">
+        <v>-0.88745739999999995</v>
+      </c>
+      <c r="G38" s="2">
+        <v>-0.8759768</v>
+      </c>
+      <c r="H38" s="1">
+        <v>0.63045728000000001</v>
+      </c>
+      <c r="I38" s="2">
+        <v>0.80059862999999998</v>
+      </c>
+      <c r="J38" s="2">
+        <v>0.82571181999999999</v>
+      </c>
+      <c r="K38" s="2">
+        <v>0.83287487999999998</v>
+      </c>
+      <c r="L38" s="2">
+        <v>0.81180732</v>
+      </c>
+      <c r="M38" s="1">
+        <v>-0.62609649999999994</v>
+      </c>
+      <c r="N38" s="2">
+        <v>0.90004329999999999</v>
+      </c>
+      <c r="O38" s="3">
+        <v>0.21345633999999999</v>
+      </c>
+      <c r="P38" s="1">
+        <v>0.74126776999999999</v>
+      </c>
+      <c r="Q38" s="1">
+        <v>0.79827303000000005</v>
+      </c>
+      <c r="R38" s="1">
+        <v>0.71967510000000001</v>
+      </c>
+      <c r="S38" s="1">
+        <v>0.32409579999999999</v>
+      </c>
+      <c r="T38" s="1">
+        <v>0.68836103000000004</v>
+      </c>
+      <c r="U38" s="1">
+        <v>0.66027961999999996</v>
+      </c>
+      <c r="V38" s="2">
+        <v>0.86720025000000001</v>
+      </c>
+      <c r="W38" s="1">
+        <v>-0.57420979999999999</v>
+      </c>
+      <c r="X38" s="3">
+        <v>9.9589549999999999E-2</v>
+      </c>
+      <c r="Y38" s="3">
+        <v>0.28459990000000002</v>
+      </c>
+      <c r="Z38" s="3">
+        <v>0.21529656999999999</v>
+      </c>
+      <c r="AA38" s="1">
+        <v>0.73371350999999996</v>
+      </c>
+      <c r="AB38" s="1">
+        <v>0.79366159999999997</v>
+      </c>
+      <c r="AC38" s="2">
+        <v>-0.96212439999999999</v>
+      </c>
+      <c r="AD38" s="1">
+        <v>0.75024089999999999</v>
+      </c>
+      <c r="AE38" s="1">
+        <v>0.77759020999999995</v>
+      </c>
+      <c r="AF38" s="2">
+        <v>0.84694130999999995</v>
+      </c>
+      <c r="AG38" s="2">
+        <v>0.86183131000000002</v>
+      </c>
+      <c r="AH38" s="1">
+        <v>0.53579372000000003</v>
+      </c>
+      <c r="AI38" s="1">
+        <v>-0.58416420000000002</v>
+      </c>
+      <c r="AJ38" s="2">
+        <v>-0.88003819999999999</v>
+      </c>
+      <c r="AK38" s="2">
+        <v>-0.94738900000000004</v>
+      </c>
+      <c r="AL38" s="2">
+        <v>1</v>
+      </c>
+      <c r="AM38" s="1">
+        <v>0.50237120000000002</v>
+      </c>
+      <c r="AN38" s="1">
+        <v>0.39860098999999999</v>
+      </c>
+      <c r="AO38" s="2">
+        <v>-0.90815239999999997</v>
+      </c>
+      <c r="AP38" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39" s="2">
+        <v>0.81297564</v>
+      </c>
+      <c r="C39" s="3">
+        <v>-6.1928299999999999E-2</v>
+      </c>
+      <c r="D39" s="1">
+        <v>-0.36248370000000002</v>
+      </c>
+      <c r="E39" s="3">
+        <v>-0.14008770000000001</v>
+      </c>
+      <c r="F39" s="3">
+        <v>-9.0051699999999998E-2</v>
+      </c>
+      <c r="G39" s="3">
+        <v>-0.1672438</v>
+      </c>
+      <c r="H39" s="2">
+        <v>0.9289423</v>
+      </c>
+      <c r="I39" s="2">
+        <v>0.87145950999999999</v>
+      </c>
+      <c r="J39" s="2">
+        <v>0.82621405999999997</v>
+      </c>
+      <c r="K39" s="2">
+        <v>0.80782304999999999</v>
+      </c>
+      <c r="L39" s="3">
+        <v>0.10396757</v>
+      </c>
+      <c r="M39" s="2">
+        <v>-0.90894600000000003</v>
+      </c>
+      <c r="N39" s="1">
+        <v>0.65815109999999999</v>
+      </c>
+      <c r="O39" s="2">
+        <v>0.84163167000000005</v>
+      </c>
+      <c r="P39" s="2">
+        <v>0.80721993000000003</v>
+      </c>
+      <c r="Q39" s="1">
+        <v>0.75683067999999998</v>
+      </c>
+      <c r="R39" s="2">
+        <v>0.82266426999999998</v>
+      </c>
+      <c r="S39" s="1">
+        <v>0.66410084999999996</v>
+      </c>
+      <c r="T39" s="1">
+        <v>0.67129139999999998</v>
+      </c>
+      <c r="U39" s="2">
+        <v>0.96052263000000004</v>
+      </c>
+      <c r="V39" s="1">
+        <v>0.69620466000000003</v>
+      </c>
+      <c r="W39" s="2">
+        <v>-0.91829709999999998</v>
+      </c>
+      <c r="X39" s="3">
+        <v>-2.1857000000000001E-3</v>
+      </c>
+      <c r="Y39" s="2">
+        <v>0.92169902000000004</v>
+      </c>
+      <c r="Z39" s="1">
+        <v>-0.59858440000000002</v>
+      </c>
+      <c r="AA39" s="2">
+        <v>0.81785713000000004</v>
+      </c>
+      <c r="AB39" s="3">
+        <v>0.27142723000000002</v>
+      </c>
+      <c r="AC39" s="1">
+        <v>-0.32218799999999997</v>
+      </c>
+      <c r="AD39" s="2">
+        <v>0.84465394999999999</v>
+      </c>
+      <c r="AE39" s="2">
+        <v>0.88700774999999998</v>
+      </c>
+      <c r="AF39" s="2">
+        <v>0.80841129</v>
+      </c>
+      <c r="AG39" s="1">
+        <v>0.66587286999999995</v>
+      </c>
+      <c r="AH39" s="1">
+        <v>0.74253095999999996</v>
+      </c>
+      <c r="AI39" s="3">
+        <v>0.2534865</v>
+      </c>
+      <c r="AJ39" s="3">
+        <v>-0.16251180000000001</v>
+      </c>
+      <c r="AK39" s="3">
+        <v>-0.28748899999999999</v>
+      </c>
+      <c r="AL39" s="1">
+        <v>0.50237120000000002</v>
+      </c>
+      <c r="AM39" s="2">
+        <v>1</v>
+      </c>
+      <c r="AN39" s="1">
+        <v>0.47914887</v>
+      </c>
+      <c r="AO39" s="1">
+        <v>-0.30762610000000001</v>
+      </c>
+      <c r="AP39" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40" s="1">
+        <v>0.35936335000000003</v>
+      </c>
+      <c r="C40" s="3">
+        <v>-0.2276551</v>
+      </c>
+      <c r="D40" s="1">
+        <v>-0.52841090000000002</v>
+      </c>
+      <c r="E40" s="1">
+        <v>-0.34595579999999998</v>
+      </c>
+      <c r="F40" s="3">
+        <v>-0.18353639999999999</v>
+      </c>
+      <c r="G40" s="1">
+        <v>-0.36944510000000003</v>
+      </c>
+      <c r="H40" s="1">
+        <v>0.60118676000000004</v>
+      </c>
+      <c r="I40" s="1">
+        <v>0.61431658</v>
+      </c>
+      <c r="J40" s="1">
+        <v>0.63311903000000003</v>
+      </c>
+      <c r="K40" s="1">
+        <v>0.62017864</v>
+      </c>
+      <c r="L40" s="3">
+        <v>-7.0656099999999999E-2</v>
+      </c>
+      <c r="M40" s="1">
+        <v>-0.44690980000000002</v>
+      </c>
+      <c r="N40" s="3">
+        <v>0.29945807000000002</v>
+      </c>
+      <c r="O40" s="1">
+        <v>0.32282712000000002</v>
+      </c>
+      <c r="P40" s="1">
+        <v>0.59278962000000002</v>
+      </c>
+      <c r="Q40" s="1">
+        <v>0.61532851</v>
+      </c>
+      <c r="R40" s="1">
+        <v>0.60531882999999997</v>
+      </c>
+      <c r="S40" s="1">
+        <v>0.37992248000000001</v>
+      </c>
+      <c r="T40" s="3">
+        <v>3.4111210000000003E-2</v>
+      </c>
+      <c r="U40" s="1">
+        <v>0.55898484000000004</v>
+      </c>
+      <c r="V40" s="1">
+        <v>0.62932962999999997</v>
+      </c>
+      <c r="W40" s="1">
+        <v>-0.56926600000000005</v>
+      </c>
+      <c r="X40" s="1">
+        <v>-0.31375180000000003</v>
+      </c>
+      <c r="Y40" s="3">
+        <v>0.26643984999999998</v>
+      </c>
+      <c r="Z40" s="1">
+        <v>-0.43589480000000003</v>
+      </c>
+      <c r="AA40" s="1">
+        <v>0.66384637000000002</v>
+      </c>
+      <c r="AB40" s="3">
+        <v>-7.1380200000000005E-2</v>
+      </c>
+      <c r="AC40" s="1">
+        <v>-0.34721800000000003</v>
+      </c>
+      <c r="AD40" s="1">
+        <v>0.44965681000000002</v>
+      </c>
+      <c r="AE40" s="1">
+        <v>0.48443208999999998</v>
+      </c>
+      <c r="AF40" s="1">
+        <v>0.62721914999999995</v>
+      </c>
+      <c r="AG40" s="1">
+        <v>0.69408088000000001</v>
+      </c>
+      <c r="AH40" s="1">
+        <v>0.55536092000000004</v>
+      </c>
+      <c r="AI40" s="3">
+        <v>0.13329924000000001</v>
+      </c>
+      <c r="AJ40" s="3">
+        <v>-5.4796200000000003E-2</v>
+      </c>
+      <c r="AK40" s="3">
+        <v>-0.19826079999999999</v>
+      </c>
+      <c r="AL40" s="1">
+        <v>0.39860098999999999</v>
+      </c>
+      <c r="AM40" s="1">
+        <v>0.47914887</v>
+      </c>
+      <c r="AN40" s="2">
+        <v>1</v>
+      </c>
+      <c r="AO40" s="1">
+        <v>-0.4299943</v>
+      </c>
+      <c r="AP40" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B41" s="1">
+        <v>-0.57235119999999995</v>
+      </c>
+      <c r="C41" s="2">
+        <v>0.85104365000000004</v>
+      </c>
+      <c r="D41" s="2">
+        <v>0.95925221999999999</v>
+      </c>
+      <c r="E41" s="2">
+        <v>0.86870075999999996</v>
+      </c>
+      <c r="F41" s="2">
+        <v>0.85200069</v>
+      </c>
+      <c r="G41" s="2">
+        <v>0.96104778000000002</v>
+      </c>
+      <c r="H41" s="1">
+        <v>-0.52266869999999999</v>
+      </c>
+      <c r="I41" s="1">
+        <v>-0.69294299999999998</v>
+      </c>
+      <c r="J41" s="1">
+        <v>-0.74205239999999995</v>
+      </c>
+      <c r="K41" s="1">
+        <v>-0.76278420000000002</v>
+      </c>
+      <c r="L41" s="1">
+        <v>-0.74086920000000001</v>
+      </c>
+      <c r="M41" s="1">
+        <v>0.46493688</v>
+      </c>
+      <c r="N41" s="1">
+        <v>-0.7323539</v>
+      </c>
+      <c r="O41" s="3">
+        <v>-7.0639999999999994E-2</v>
+      </c>
+      <c r="P41" s="1">
+        <v>-0.64572949999999996</v>
+      </c>
+      <c r="Q41" s="1">
+        <v>-0.70831290000000002</v>
+      </c>
+      <c r="R41" s="1">
+        <v>-0.63124930000000001</v>
+      </c>
+      <c r="S41" s="3">
+        <v>-0.20074400000000001</v>
+      </c>
+      <c r="T41" s="1">
+        <v>-0.39434059999999999</v>
+      </c>
+      <c r="U41" s="1">
+        <v>-0.49810159999999998</v>
+      </c>
+      <c r="V41" s="2">
+        <v>-0.80754890000000001</v>
+      </c>
+      <c r="W41" s="1">
+        <v>0.47166084000000003</v>
+      </c>
+      <c r="X41" s="3">
+        <v>-2.1527E-3</v>
+      </c>
+      <c r="Y41" s="3">
+        <v>-4.9975199999999997E-2</v>
+      </c>
+      <c r="Z41" s="1">
+        <v>-0.31042150000000002</v>
+      </c>
+      <c r="AA41" s="1">
+        <v>-0.62748099999999996</v>
+      </c>
+      <c r="AB41" s="1">
+        <v>-0.60229730000000004</v>
+      </c>
+      <c r="AC41" s="2">
+        <v>0.94433668999999998</v>
+      </c>
+      <c r="AD41" s="1">
+        <v>-0.64895329999999996</v>
+      </c>
+      <c r="AE41" s="1">
+        <v>-0.63213569999999997</v>
+      </c>
+      <c r="AF41" s="1">
+        <v>-0.76469679999999995</v>
+      </c>
+      <c r="AG41" s="2">
+        <v>-0.831036</v>
+      </c>
+      <c r="AH41" s="1">
+        <v>-0.476109</v>
+      </c>
+      <c r="AI41" s="1">
+        <v>0.64803504000000001</v>
+      </c>
+      <c r="AJ41" s="1">
+        <v>0.79766079000000001</v>
+      </c>
+      <c r="AK41" s="2">
+        <v>0.86453215000000005</v>
+      </c>
+      <c r="AL41" s="2">
+        <v>-0.90815239999999997</v>
+      </c>
+      <c r="AM41" s="1">
+        <v>-0.30762610000000001</v>
+      </c>
+      <c r="AN41" s="1">
+        <v>-0.4299943</v>
+      </c>
+      <c r="AO41" s="2">
+        <v>1</v>
+      </c>
+      <c r="AP41" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A1:AP41">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="max"/>
+        <color theme="8"/>
+        <color theme="0"/>
+        <color theme="5"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="8" scale="40" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>